--- a/legendre_out/DATA/o17_1/a2/o17_1_a2Fit.xlsx
+++ b/legendre_out/DATA/o17_1/a2/o17_1_a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,25 +408,25 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>4.901087155611255e-13</v>
+        <v>2.632742107369512e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>2.931369448595703e-14</v>
+        <v>-5.336348950375648e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>2.132484175476022e-13</v>
+        <v>1.916902586954209e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>6.975217685253045e-13</v>
+        <v>2.927485765599967e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>3.278295912186311</v>
+        <v>22.74813384612161</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6571661713505303</v>
+        <v>0.0003771160593561369</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6556591824372623</v>
+        <v>4.549626769224323</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>6.644874872751456e-13</v>
+        <v>2.334340235918921e-11</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.863526610436978e-13</v>
+        <v>1.330469430633913e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.403734766812525e-13</v>
+        <v>2.322866792274652e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>1.464431916474635e-12</v>
+        <v>3.317593144063233e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>4.976250788884666</v>
+        <v>15.91527349424436</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4187854547645199</v>
+        <v>0.007090181408547004</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9952501577769333</v>
+        <v>3.183054698848871</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +460,25 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>2.362288859922496e-12</v>
+        <v>1.297192008484902e-11</v>
       </c>
       <c r="C4" t="n">
-        <v>1.266101549288825e-12</v>
+        <v>7.966453571024294e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>8.318311259030212e-13</v>
+        <v>1.711292198443369e-12</v>
       </c>
       <c r="E4" t="n">
-        <v>1.687133891126517e-12</v>
+        <v>2.508895649773316e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3052086431999539</v>
+        <v>7.200681763161327</v>
       </c>
       <c r="G4" t="n">
-        <v>0.99754397611235</v>
+        <v>0.2061380657616901</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06104172863999079</v>
+        <v>1.440136352632265</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +486,25 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>3.41156873209556e-12</v>
+        <v>1.173756601425036e-11</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.368960730640372e-13</v>
+        <v>4.557082631273487e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.308579308892872e-12</v>
+        <v>2.714565404228692e-12</v>
       </c>
       <c r="E5" t="n">
-        <v>1.81255274248226e-12</v>
+        <v>3.542028737793155e-12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7444898729494585</v>
+        <v>41.11469028323127</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9804380413629212</v>
+        <v>8.895296543969062e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1488979745898917</v>
+        <v>8.222938056646253</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +512,25 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>3.514892698167205e-12</v>
+        <v>9.409200880681577e-12</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.824809513852537e-13</v>
+        <v>6.442429662771566e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.352041544895241e-12</v>
+        <v>1.702875931131934e-12</v>
       </c>
       <c r="E6" t="n">
-        <v>2.110623501821323e-12</v>
+        <v>2.87471764031092e-12</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4011825000579081</v>
+        <v>12.69656053674514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9952969603925864</v>
+        <v>0.02639447629367804</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08023650001158161</v>
+        <v>2.539312107349029</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +538,25 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>2.932924527894479e-12</v>
+        <v>1.670519384451864e-11</v>
       </c>
       <c r="C7" t="n">
-        <v>1.300436681272307e-12</v>
+        <v>-9.627983557698679e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.161591520763303e-12</v>
+        <v>2.949266727561756e-12</v>
       </c>
       <c r="E7" t="n">
-        <v>2.408093112968658e-12</v>
+        <v>4.923109803828822e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>1.350643723548726</v>
+        <v>1.556896782921892</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9296352228367663</v>
+        <v>0.9064120213335015</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2701287447097452</v>
+        <v>0.3113793565843784</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +564,25 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>4.10022893592474e-12</v>
+        <v>7.948777961921133e-12</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.41841794127545e-12</v>
+        <v>-8.549048995119727e-12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.694795811920943e-12</v>
+        <v>1.595580047839103e-12</v>
       </c>
       <c r="E8" t="n">
-        <v>1.99001293143977e-12</v>
+        <v>2.572226436030792e-12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.11611881112418</v>
+        <v>60.60512859557739</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9526670225638579</v>
+        <v>9.113007123027271e-12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.223223762224836</v>
+        <v>12.12102571911548</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +590,25 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>4.475321247594123e-12</v>
+        <v>1.367074553021573e-11</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.428591795818028e-12</v>
+        <v>2.568325698526281e-11</v>
       </c>
       <c r="D9" t="n">
-        <v>1.8077836566424e-12</v>
+        <v>8.553688610503478e-13</v>
       </c>
       <c r="E9" t="n">
-        <v>2.487723270102842e-12</v>
+        <v>1.674567204173676e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>1.186250786503008</v>
+        <v>108.8142306654163</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9461895959309252</v>
+        <v>7.295496977702138e-22</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2372501573006017</v>
+        <v>21.76284613308326</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +616,25 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>1.89561748997318e-12</v>
+        <v>4.782281345766854e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>3.471954941724843e-12</v>
+        <v>8.64927073043676e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>7.791873741648274e-13</v>
+        <v>1.118964227310931e-12</v>
       </c>
       <c r="E10" t="n">
-        <v>1.55515919979274e-12</v>
+        <v>2.233092942604418e-12</v>
       </c>
       <c r="F10" t="n">
-        <v>1.827029632079023</v>
+        <v>7.946216121591695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8725234818356005</v>
+        <v>0.1592247784894929</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3654059264158047</v>
+        <v>1.589243224318339</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +642,25 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>3.572369931142099e-12</v>
+        <v>6.148960142515069e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>1.31624183311179e-13</v>
+        <v>9.266829337795154e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>1.336957688793645e-12</v>
+        <v>1.116937318110758e-12</v>
       </c>
       <c r="E11" t="n">
-        <v>2.048676791687583e-12</v>
+        <v>2.187512091243926e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>0.701585609862751</v>
+        <v>35.0649330511702</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9828815398419553</v>
+        <v>1.460414942288309e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1403171219725502</v>
+        <v>7.01298661023404</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +668,25 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>2.620273883829677e-12</v>
+        <v>1.247306095992767e-11</v>
       </c>
       <c r="C12" t="n">
-        <v>8.040726794574891e-14</v>
+        <v>2.093003063107442e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>1.047783264515585e-12</v>
+        <v>2.973778212390635e-12</v>
       </c>
       <c r="E12" t="n">
-        <v>2.187963699719926e-12</v>
+        <v>3.697805710343921e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4733307864018119</v>
+        <v>6.237724094517159</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9760447580069095</v>
+        <v>0.2837697929981349</v>
       </c>
       <c r="H12" t="n">
-        <v>0.118332696600453</v>
+        <v>1.247544818903432</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +694,25 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>2.872066313955092e-12</v>
+        <v>4.673617881183521e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.812445638042437e-13</v>
+        <v>4.025571139385288e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>1.100277141561339e-12</v>
+        <v>1.75168735990081e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>2.056986686857093e-12</v>
+        <v>3.766716811453817e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2128467773891424</v>
+        <v>3.908098725778916</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9947232232640035</v>
+        <v>0.4185861866685608</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0532116943472856</v>
+        <v>0.977024681444729</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +720,25 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.282651302638854e-12</v>
+        <v>2.390756721377925e-11</v>
       </c>
       <c r="C14" t="n">
-        <v>1.983487448436905e-12</v>
+        <v>-1.201331500895645e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>1.141325592022753e-12</v>
+        <v>1.647567652529241e-12</v>
       </c>
       <c r="E14" t="n">
-        <v>2.208284835682759e-12</v>
+        <v>2.255787157801496e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1884596493624192</v>
+        <v>105.0638597774506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9992330773702985</v>
+        <v>4.51868805713575e-21</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03769192987248383</v>
+        <v>21.01277195549011</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +746,25 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>2.039328683815283e-12</v>
+        <v>3.144953273547188e-11</v>
       </c>
       <c r="C15" t="n">
-        <v>1.854195567739663e-12</v>
+        <v>1.579175973910945e-11</v>
       </c>
       <c r="D15" t="n">
-        <v>7.589583450302846e-13</v>
+        <v>1.684841242757023e-12</v>
       </c>
       <c r="E15" t="n">
-        <v>1.372437635891935e-12</v>
+        <v>2.953514543416349e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>1.316817028368222</v>
+        <v>100.6554360420628</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9331917423253554</v>
+        <v>3.845058359987125e-20</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2633634056736445</v>
+        <v>20.13108720841257</v>
       </c>
     </row>
     <row r="16">
@@ -772,25 +772,25 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>4.127190406207458e-12</v>
+        <v>2.663744464169444e-11</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.187954282361893e-13</v>
+        <v>1.443834418058721e-11</v>
       </c>
       <c r="D16" t="n">
-        <v>1.709354280187225e-12</v>
+        <v>1.893560863790576e-12</v>
       </c>
       <c r="E16" t="n">
-        <v>2.261503910864621e-12</v>
+        <v>2.943385606509884e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>1.908179934010361</v>
+        <v>60.67531397967468</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8616986565365135</v>
+        <v>8.813546300804304e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3816359868020722</v>
+        <v>12.13506279593494</v>
       </c>
     </row>
     <row r="17">
@@ -798,25 +798,25 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>6.130869312223839e-12</v>
+        <v>2.605097589078039e-11</v>
       </c>
       <c r="C17" t="n">
-        <v>4.227452988398879e-12</v>
+        <v>2.212085119517025e-11</v>
       </c>
       <c r="D17" t="n">
-        <v>2.146291088414999e-12</v>
+        <v>2.073989969981078e-12</v>
       </c>
       <c r="E17" t="n">
-        <v>4.288392176697736e-12</v>
+        <v>3.497275366289762e-12</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4332221290273668</v>
+        <v>72.37035996832806</v>
       </c>
       <c r="G17" t="n">
-        <v>0.994364951775902</v>
+        <v>3.288602578717262e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08664442580547337</v>
+        <v>14.47407199366561</v>
       </c>
     </row>
     <row r="18">
@@ -824,25 +824,25 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>4.570750073572705e-12</v>
+        <v>3.286339930269381e-11</v>
       </c>
       <c r="C18" t="n">
-        <v>6.110521534350136e-12</v>
+        <v>-2.933720356937008e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>1.856940009095512e-12</v>
+        <v>2.570715209555388e-12</v>
       </c>
       <c r="E18" t="n">
-        <v>6.110269863481022e-12</v>
+        <v>4.220581295846806e-12</v>
       </c>
       <c r="F18" t="n">
-        <v>2.223713832422755</v>
+        <v>16.56964850640992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8174033575193669</v>
+        <v>0.002342719168083031</v>
       </c>
       <c r="H18" t="n">
-        <v>0.444742766484551</v>
+        <v>4.14241212660248</v>
       </c>
     </row>
     <row r="19">
@@ -850,25 +850,25 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>7.26617676475448e-12</v>
+        <v>2.838841388731697e-11</v>
       </c>
       <c r="C19" t="n">
-        <v>4.994801257744306e-12</v>
+        <v>4.167197271385436e-12</v>
       </c>
       <c r="D19" t="n">
-        <v>2.552192903463256e-12</v>
+        <v>2.199605949611321e-12</v>
       </c>
       <c r="E19" t="n">
-        <v>4.969856845461099e-12</v>
+        <v>3.83766244012355e-12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4526102089294401</v>
+        <v>12.28574911012096</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9937559303658586</v>
+        <v>0.03107534766398735</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09052204178588803</v>
+        <v>2.457149822024191</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +876,25 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>4.089750934264279e-12</v>
+        <v>2.067274967975427e-11</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.989581272221954e-12</v>
+        <v>1.268370329258985e-11</v>
       </c>
       <c r="D20" t="n">
-        <v>1.808031516047595e-12</v>
+        <v>2.296901750913019e-12</v>
       </c>
       <c r="E20" t="n">
-        <v>3.420177478581276e-12</v>
+        <v>3.705338186654232e-12</v>
       </c>
       <c r="F20" t="n">
-        <v>2.28368398821231</v>
+        <v>41.43158853831053</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8086602484897666</v>
+        <v>7.675603458851792e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4567367976424619</v>
+        <v>8.286317707662105</v>
       </c>
     </row>
     <row r="21">
@@ -902,25 +902,25 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>9.931689116515452e-12</v>
+        <v>4.535354732564701e-11</v>
       </c>
       <c r="C21" t="n">
-        <v>6.53297214766851e-13</v>
+        <v>3.486970149984584e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>3.671017233722489e-12</v>
+        <v>3.36000273526605e-12</v>
       </c>
       <c r="E21" t="n">
-        <v>5.938141333311058e-12</v>
+        <v>5.137274535035494e-12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1996642123112239</v>
+        <v>16.88571816486519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9991174708064828</v>
+        <v>0.004721713551517581</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03993284246224478</v>
+        <v>3.377143632973037</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +928,25 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>2.20650823767607e-11</v>
+        <v>3.043857504084817e-11</v>
       </c>
       <c r="C22" t="n">
-        <v>1.13967873232811e-11</v>
+        <v>1.331732644750234e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>7.814665141807248e-12</v>
+        <v>8.783183192731832e-12</v>
       </c>
       <c r="E22" t="n">
-        <v>1.480304476591537e-11</v>
+        <v>1.156807397022723e-11</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2992501577375308</v>
+        <v>3.060306350991828</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9976571649829036</v>
+        <v>0.6906887127055238</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05985003154750616</v>
+        <v>0.6120612701983656</v>
       </c>
     </row>
     <row r="23">
@@ -954,25 +954,25 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>3.666390674063056e-11</v>
+        <v>2.446074387054215e-11</v>
       </c>
       <c r="C23" t="n">
-        <v>2.171413699502046e-11</v>
+        <v>1.621908893895557e-11</v>
       </c>
       <c r="D23" t="n">
-        <v>1.287284494503759e-11</v>
+        <v>6.134427943929856e-12</v>
       </c>
       <c r="E23" t="n">
-        <v>2.413109548920221e-11</v>
+        <v>1.038523715721782e-11</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3196349811002719</v>
+        <v>8.83095029754074</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9972574084401612</v>
+        <v>0.1159999535385658</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06392699622005439</v>
+        <v>1.766190059508148</v>
       </c>
     </row>
     <row r="24">
@@ -980,25 +980,25 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>4.500020714071716e-11</v>
+        <v>1.038051035269426e-11</v>
       </c>
       <c r="C24" t="n">
-        <v>3.384092471279596e-11</v>
+        <v>-7.382750340020487e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>1.604900332003345e-11</v>
+        <v>5.640334711965437e-12</v>
       </c>
       <c r="E24" t="n">
-        <v>2.898412168456949e-11</v>
+        <v>6.523299501735585e-12</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6964752089278514</v>
+        <v>6.561891442722863</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9831615638020479</v>
+        <v>0.1609322559181013</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1392950417855703</v>
+        <v>1.640472860680716</v>
       </c>
     </row>
     <row r="25">
@@ -1006,25 +1006,25 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>5.711229162634691e-11</v>
+        <v>2.907897203227342e-11</v>
       </c>
       <c r="C25" t="n">
-        <v>3.410890478501246e-11</v>
+        <v>2.795721867692118e-11</v>
       </c>
       <c r="D25" t="n">
-        <v>1.976037025533646e-11</v>
+        <v>7.808750717466152e-12</v>
       </c>
       <c r="E25" t="n">
-        <v>3.780637843252011e-11</v>
+        <v>1.711006443831159e-11</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07486604593262453</v>
+        <v>4.763048415428566</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9999205739877398</v>
+        <v>0.31248536252009</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0149732091865249</v>
+        <v>1.190762103857141</v>
       </c>
     </row>
     <row r="26">
@@ -1032,25 +1032,25 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>6.25032053762625e-11</v>
+        <v>1.066615619870958e-11</v>
       </c>
       <c r="C26" t="n">
-        <v>2.013386250832951e-11</v>
+        <v>2.364187920399768e-11</v>
       </c>
       <c r="D26" t="n">
-        <v>2.225419075189213e-11</v>
+        <v>6.037333734188296e-12</v>
       </c>
       <c r="E26" t="n">
-        <v>4.190597314824543e-11</v>
+        <v>1.504525184670074e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03997245147951155</v>
+        <v>5.241960899909394</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9999832484589334</v>
+        <v>0.1549131062330825</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00799449029590231</v>
+        <v>1.747320299969798</v>
       </c>
     </row>
     <row r="27">
@@ -1058,25 +1058,25 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>5.127405536029438e-11</v>
+        <v>4.961291858047959e-12</v>
       </c>
       <c r="C27" t="n">
-        <v>2.883791541519844e-11</v>
+        <v>-1.635197965336043e-11</v>
       </c>
       <c r="D27" t="n">
-        <v>1.777910091061062e-11</v>
+        <v>5.902525411347199e-12</v>
       </c>
       <c r="E27" t="n">
-        <v>3.544247250567098e-11</v>
+        <v>2.346726324148144e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06050793477450267</v>
+        <v>14.54070620061012</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9999531182772743</v>
+        <v>0.002254347460342644</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01210158695490053</v>
+        <v>4.846902066870038</v>
       </c>
     </row>
     <row r="28">
@@ -1084,25 +1084,25 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>4.981776522596601e-11</v>
+        <v>5.958415928957665e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>1.741031970818727e-11</v>
+        <v>4.517968062306035e-12</v>
       </c>
       <c r="D28" t="n">
-        <v>1.778923269286854e-11</v>
+        <v>2.979469690848004e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>3.263247971878895e-11</v>
+        <v>6.747570603423346e-12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1293995060701923</v>
+        <v>7.498898641762084</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9996940494919365</v>
+        <v>0.05758675732938714</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02587990121403845</v>
+        <v>2.499632880587361</v>
       </c>
     </row>
     <row r="29">
@@ -1110,25 +1110,25 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>5.321298165679788e-11</v>
+        <v>2.677668491495483e-11</v>
       </c>
       <c r="C29" t="n">
-        <v>2.583648531187526e-11</v>
+        <v>2.996798982240821e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>1.85769495260053e-11</v>
+        <v>8.871264571086695e-12</v>
       </c>
       <c r="E29" t="n">
-        <v>3.460234578188291e-11</v>
+        <v>1.509142074741919e-11</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08288225325552068</v>
+        <v>2.92573707803266</v>
       </c>
       <c r="G29" t="n">
-        <v>0.999897867453915</v>
+        <v>0.5703290547783293</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01657645065110414</v>
+        <v>0.731434269508165</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1136,25 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>5.153124402308962e-11</v>
+        <v>1.569982649464051e-11</v>
       </c>
       <c r="C30" t="n">
-        <v>2.047054920800363e-11</v>
+        <v>2.595714800106657e-11</v>
       </c>
       <c r="D30" t="n">
-        <v>1.821952341520865e-11</v>
+        <v>4.972198785361059e-12</v>
       </c>
       <c r="E30" t="n">
-        <v>3.178805901631303e-11</v>
+        <v>1.272135325679209e-11</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1717912589811794</v>
+        <v>5.169374338804015</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9993879615195955</v>
+        <v>0.2703559215464442</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03435825179623588</v>
+        <v>1.292343584701004</v>
       </c>
     </row>
     <row r="31">
@@ -1162,25 +1162,25 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>4.687972629561772e-11</v>
+        <v>2.149734090020595e-11</v>
       </c>
       <c r="C31" t="n">
-        <v>2.842909673774884e-11</v>
+        <v>1.215948335530312e-11</v>
       </c>
       <c r="D31" t="n">
-        <v>1.625591636950479e-11</v>
+        <v>6.858960062398628e-12</v>
       </c>
       <c r="E31" t="n">
-        <v>3.172917694678448e-11</v>
+        <v>1.238250612728715e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1650494225105068</v>
+        <v>3.704296681591483</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9994449256475127</v>
+        <v>0.5927246814021216</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03300988450210136</v>
+        <v>0.7408593363182965</v>
       </c>
     </row>
     <row r="32">
@@ -1188,25 +1188,25 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>4.369514056962942e-11</v>
+        <v>1.65130028745269e-11</v>
       </c>
       <c r="C32" t="n">
-        <v>1.86626438232133e-11</v>
+        <v>-1.454605448334167e-11</v>
       </c>
       <c r="D32" t="n">
-        <v>1.568697301088291e-11</v>
+        <v>7.013441602486343e-12</v>
       </c>
       <c r="E32" t="n">
-        <v>2.977079559887832e-11</v>
+        <v>7.173046032545864e-12</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3753136080647381</v>
+        <v>1.018289982238469</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9959823540393861</v>
+        <v>0.9070100651785115</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07506272161294762</v>
+        <v>0.2545724955596174</v>
       </c>
     </row>
     <row r="33">
@@ -1214,25 +1214,25 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>4.167919045176066e-11</v>
+        <v>1.385852117501837e-11</v>
       </c>
       <c r="C33" t="n">
-        <v>4.832974480431659e-12</v>
+        <v>-1.352029105019418e-12</v>
       </c>
       <c r="D33" t="n">
-        <v>1.550177716027247e-11</v>
+        <v>5.28461267455556e-12</v>
       </c>
       <c r="E33" t="n">
-        <v>2.688198557565779e-11</v>
+        <v>7.250612016386312e-12</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3660893237900624</v>
+        <v>6.115622098677836</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9962123730348138</v>
+        <v>0.295130443755949</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07321786475801248</v>
+        <v>1.223124419735567</v>
       </c>
     </row>
     <row r="34">
@@ -1240,25 +1240,25 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>3.906104098952098e-11</v>
+        <v>2.233334293808219e-11</v>
       </c>
       <c r="C34" t="n">
-        <v>1.469782672645559e-11</v>
+        <v>-9.989637951876881e-12</v>
       </c>
       <c r="D34" t="n">
-        <v>1.398397517408188e-11</v>
+        <v>6.871775849750463e-12</v>
       </c>
       <c r="E34" t="n">
-        <v>2.410822834245914e-11</v>
+        <v>1.143634619897045e-11</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3400572761388611</v>
+        <v>2.515568756960321</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9968211389308467</v>
+        <v>0.6418501526834699</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06801145522777222</v>
+        <v>0.6288921892400802</v>
       </c>
     </row>
     <row r="35">
@@ -1266,25 +1266,25 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>3.971789424552464e-11</v>
+        <v>4.914905400302409e-12</v>
       </c>
       <c r="C35" t="n">
-        <v>1.45607448855276e-11</v>
+        <v>3.631355284749168e-11</v>
       </c>
       <c r="D35" t="n">
-        <v>1.409604583819078e-11</v>
+        <v>1.36817191540509e-12</v>
       </c>
       <c r="E35" t="n">
-        <v>2.470086084956146e-11</v>
+        <v>1.071724567476848e-11</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2125264693321567</v>
+        <v>16.442724353007</v>
       </c>
       <c r="G35" t="n">
-        <v>0.998973097453536</v>
+        <v>0.002479150275504867</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04250529386643135</v>
+        <v>4.11068108825175</v>
       </c>
     </row>
     <row r="36">
@@ -1292,25 +1292,25 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>3.29225998594209e-11</v>
+        <v>1.21878874725082e-11</v>
       </c>
       <c r="C36" t="n">
-        <v>1.600056699271431e-11</v>
+        <v>2.110572407304249e-11</v>
       </c>
       <c r="D36" t="n">
-        <v>1.171492097916803e-11</v>
+        <v>3.294338109029318e-12</v>
       </c>
       <c r="E36" t="n">
-        <v>2.049079023126222e-11</v>
+        <v>6.523799433809177e-12</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4052949839004969</v>
+        <v>20.61068828325103</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9951824949051631</v>
+        <v>0.0009593452846756136</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08105899678009938</v>
+        <v>4.122137656650206</v>
       </c>
     </row>
     <row r="37">
@@ -1318,25 +1318,25 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.334583101591976e-11</v>
+        <v>4.364488499536876e-11</v>
       </c>
       <c r="C37" t="n">
-        <v>4.460609199250255e-12</v>
+        <v>-2.08647841373512e-11</v>
       </c>
       <c r="D37" t="n">
-        <v>8.612273896101463e-12</v>
+        <v>7.99325214453957e-12</v>
       </c>
       <c r="E37" t="n">
-        <v>1.361560533529231e-11</v>
+        <v>1.016823101500579e-11</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6019084974038962</v>
+        <v>3.945617091867399</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9879156946525591</v>
+        <v>0.4134158046430607</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1203816994807792</v>
+        <v>0.9864042729668496</v>
       </c>
     </row>
     <row r="38">
@@ -1344,25 +1344,25 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>1.647529291800267e-11</v>
+        <v>2.866059602444545e-11</v>
       </c>
       <c r="C38" t="n">
-        <v>1.064758188473196e-11</v>
+        <v>1.037962860720288e-11</v>
       </c>
       <c r="D38" t="n">
-        <v>5.743783443412818e-12</v>
+        <v>4.103991098375269e-12</v>
       </c>
       <c r="E38" t="n">
-        <v>1.068692497327663e-11</v>
+        <v>6.444222046894402e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2915747480105889</v>
+        <v>24.71247105858976</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9977985455090628</v>
+        <v>0.0001583203361899654</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05831494960211778</v>
+        <v>4.942494211717952</v>
       </c>
     </row>
     <row r="39">
@@ -1370,25 +1370,25 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>2.534334284649769e-11</v>
+        <v>1.754862965846287e-11</v>
       </c>
       <c r="C39" t="n">
-        <v>1.300091170729638e-11</v>
+        <v>3.743358320186765e-11</v>
       </c>
       <c r="D39" t="n">
-        <v>8.897642473225696e-12</v>
+        <v>2.550291712613994e-12</v>
       </c>
       <c r="E39" t="n">
-        <v>1.596546468099672e-11</v>
+        <v>5.845597081958058e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2770001035673744</v>
+        <v>18.74868039405943</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9980534088533047</v>
+        <v>0.002140665901631204</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05540002071347488</v>
+        <v>3.749736078811886</v>
       </c>
     </row>
     <row r="40">
@@ -1396,25 +1396,25 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>1.236183449205199e-11</v>
+        <v>3.334895361807759e-11</v>
       </c>
       <c r="C40" t="n">
-        <v>4.53646964998518e-12</v>
+        <v>1.469057813997755e-11</v>
       </c>
       <c r="D40" t="n">
-        <v>4.449634831585816e-12</v>
+        <v>3.867131578380173e-12</v>
       </c>
       <c r="E40" t="n">
-        <v>7.390607046018498e-12</v>
+        <v>6.192285418065383e-12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4677515999033636</v>
+        <v>8.887511915648146</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9932565601124704</v>
+        <v>0.1136359271758624</v>
       </c>
       <c r="H40" t="n">
-        <v>0.09355031998067272</v>
+        <v>1.777502383129629</v>
       </c>
     </row>
     <row r="41">
@@ -1422,25 +1422,25 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>9.7802397013242e-12</v>
+        <v>3.038835517632796e-11</v>
       </c>
       <c r="C41" t="n">
-        <v>-9.803405776415356e-13</v>
+        <v>-4.732267637341282e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>3.730779981556322e-12</v>
+        <v>2.960345674186218e-12</v>
       </c>
       <c r="E41" t="n">
-        <v>5.747233541661049e-12</v>
+        <v>4.084306053206082e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7462565118664518</v>
+        <v>41.28882000785751</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9803338956247526</v>
+        <v>8.202979094596886e-08</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1492513023732904</v>
+        <v>8.257764001571502</v>
       </c>
     </row>
     <row r="42">
@@ -1448,25 +1448,25 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>4.718251398905099e-12</v>
+        <v>4.29331322945757e-11</v>
       </c>
       <c r="C42" t="n">
-        <v>1.168704986904196e-12</v>
+        <v>-3.833184276136842e-12</v>
       </c>
       <c r="D42" t="n">
-        <v>1.969228035145821e-12</v>
+        <v>2.891093601702472e-12</v>
       </c>
       <c r="E42" t="n">
-        <v>4.592549549555388e-12</v>
+        <v>4.241800376915897e-12</v>
       </c>
       <c r="F42" t="n">
-        <v>2.144550472912493</v>
+        <v>27.22419208365064</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8288037925054589</v>
+        <v>5.158469149470984e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4289100945824986</v>
+        <v>5.444838416730128</v>
       </c>
     </row>
     <row r="43">
@@ -1474,25 +1474,25 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.180857634469274e-12</v>
+        <v>3.30671127912223e-11</v>
       </c>
       <c r="C43" t="n">
-        <v>7.059888937112489e-12</v>
+        <v>1.550838726093338e-11</v>
       </c>
       <c r="D43" t="n">
-        <v>1.603899799500473e-12</v>
+        <v>2.202170352325543e-12</v>
       </c>
       <c r="E43" t="n">
-        <v>3.243897890611399e-12</v>
+        <v>3.581591081909558e-12</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9533060671433315</v>
+        <v>67.17092562137425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.966243356393063</v>
+        <v>3.970616079231944e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1906612134286663</v>
+        <v>13.43418512427485</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1500,25 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>3.721215931706985e-12</v>
+        <v>3.666977711514247e-11</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.294598996798379e-12</v>
+        <v>6.201353040961597e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>1.637964891123734e-12</v>
+        <v>2.932867432092801e-12</v>
       </c>
       <c r="E44" t="n">
-        <v>2.081575201510271e-12</v>
+        <v>4.68149108830402e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>2.114642957328968</v>
+        <v>19.1044526722041</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8330654100593157</v>
+        <v>0.0007496609867252467</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4229285914657937</v>
+        <v>4.776113168051024</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1526,25 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>1.737578391432094e-12</v>
+        <v>4.96482679773058e-11</v>
       </c>
       <c r="C45" t="n">
-        <v>2.691243810167147e-12</v>
+        <v>2.963063156531748e-11</v>
       </c>
       <c r="D45" t="n">
-        <v>8.181886896918076e-13</v>
+        <v>2.3576954929371e-12</v>
       </c>
       <c r="E45" t="n">
-        <v>2.787292956201247e-12</v>
+        <v>4.020613415275795e-12</v>
       </c>
       <c r="F45" t="n">
-        <v>3.833918366839626</v>
+        <v>97.79997852947452</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5735669524647478</v>
+        <v>1.536681821168868e-19</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7667836733679252</v>
+        <v>19.5599957058949</v>
       </c>
     </row>
     <row r="46">
@@ -1552,25 +1552,25 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>5.130941101639683e-12</v>
+        <v>4.417564622719813e-11</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.522731178023174e-12</v>
+        <v>-1.765161831407622e-11</v>
       </c>
       <c r="D46" t="n">
-        <v>1.997889087979714e-12</v>
+        <v>2.430698807470035e-12</v>
       </c>
       <c r="E46" t="n">
-        <v>2.713182323786267e-12</v>
+        <v>3.860430902663487e-12</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2621131606901991</v>
+        <v>91.05926263922805</v>
       </c>
       <c r="G46" t="n">
-        <v>0.99829554296043</v>
+        <v>4.02499429743717e-18</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05242263213803983</v>
+        <v>18.21185252784561</v>
       </c>
     </row>
     <row r="47">
@@ -1578,25 +1578,25 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>6.297042899184154e-12</v>
+        <v>4.699519650864946e-11</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.671940573845492e-12</v>
+        <v>1.102475666420084e-11</v>
       </c>
       <c r="D47" t="n">
-        <v>2.597866378684828e-12</v>
+        <v>2.523213771046402e-12</v>
       </c>
       <c r="E47" t="n">
-        <v>2.942594069574262e-12</v>
+        <v>3.857612003334803e-12</v>
       </c>
       <c r="F47" t="n">
-        <v>1.332910975874305</v>
+        <v>67.06465895384117</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9315090076398339</v>
+        <v>4.177651906256263e-13</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2665821951748609</v>
+        <v>13.41293179076824</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1604,25 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>7.709676165252358e-12</v>
+        <v>3.507720633619724e-11</v>
       </c>
       <c r="C48" t="n">
-        <v>6.024001339207369e-12</v>
+        <v>2.556435945221932e-11</v>
       </c>
       <c r="D48" t="n">
-        <v>2.737662765662865e-12</v>
+        <v>2.393331984425861e-12</v>
       </c>
       <c r="E48" t="n">
-        <v>5.131656457144126e-12</v>
+        <v>3.779351087589472e-12</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6120969657324409</v>
+        <v>78.30947928475746</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9874426802527876</v>
+        <v>1.89400814697377e-15</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1224193931464882</v>
+        <v>15.66189585695149</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1630,25 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>1.349830233782817e-11</v>
+        <v>3.104191884282379e-11</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.700311427451627e-12</v>
+        <v>4.344144079558854e-12</v>
       </c>
       <c r="D49" t="n">
-        <v>5.235179076096998e-12</v>
+        <v>3.002259862286621e-12</v>
       </c>
       <c r="E49" t="n">
-        <v>7.32965679299888e-12</v>
+        <v>4.524620073486008e-12</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4156427632304047</v>
+        <v>20.90587662659743</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9948877636730789</v>
+        <v>0.0008439058112319768</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08312855264608093</v>
+        <v>4.181175325319485</v>
       </c>
     </row>
     <row r="50">
@@ -1656,25 +1656,25 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>1.602302847307864e-11</v>
+        <v>4.895137374107323e-11</v>
       </c>
       <c r="C50" t="n">
-        <v>4.370087890695456e-12</v>
+        <v>2.223983875577896e-11</v>
       </c>
       <c r="D50" t="n">
-        <v>5.871411380497409e-12</v>
+        <v>3.357846074179589e-12</v>
       </c>
       <c r="E50" t="n">
-        <v>1.041833945497973e-11</v>
+        <v>5.328150071710729e-12</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2606510799485006</v>
+        <v>44.05897448268691</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9983183419599156</v>
+        <v>2.253244277809588e-08</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05213021598970012</v>
+        <v>8.811794896537382</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1682,25 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.602935377601533e-11</v>
+        <v>4.369040156303001e-11</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.748178175213042e-13</v>
+        <v>-2.140647241348034e-11</v>
       </c>
       <c r="D51" t="n">
-        <v>9.854541202083596e-12</v>
+        <v>7.269871909645929e-12</v>
       </c>
       <c r="E51" t="n">
-        <v>1.46931954700532e-11</v>
+        <v>1.089446936700006e-11</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2599447037883291</v>
+        <v>5.42864585577292</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9983292943247472</v>
+        <v>0.2460731277560008</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05198894075766582</v>
+        <v>1.35716146394323</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1708,25 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>4.898868798791355e-11</v>
+        <v>2.607863119293902e-11</v>
       </c>
       <c r="C52" t="n">
-        <v>2.541418020058784e-12</v>
+        <v>-2.758236644796233e-11</v>
       </c>
       <c r="D52" t="n">
-        <v>1.821246901706852e-11</v>
+        <v>8.437402264318561e-12</v>
       </c>
       <c r="E52" t="n">
-        <v>3.087072936327505e-11</v>
+        <v>9.410141416955665e-12</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07255906857884035</v>
+        <v>32.10962471100529</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9999264916372456</v>
+        <v>5.651547482806613e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01451181371576807</v>
+        <v>6.421924942201057</v>
       </c>
     </row>
     <row r="53">
@@ -1734,4367 +1734,4233 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>1.120922964965813e-10</v>
+        <v>1.023266959637793e-11</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.1298522260207e-11</v>
+        <v>-4.088146465152474e-12</v>
       </c>
       <c r="D53" t="n">
-        <v>4.320835338573072e-11</v>
+        <v>9.22360372354449e-12</v>
       </c>
       <c r="E53" t="n">
-        <v>6.42393516598436e-11</v>
+        <v>3.68500542338658e-12</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02350662570064441</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.9999955313134313</v>
-      </c>
+        <v>3.650492654493463e-31</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>0.004701325140128883</v>
+        <v>-3.650492654493463e-31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.4601</v>
+        <v>4.47</v>
       </c>
       <c r="B54" t="n">
-        <v>1.663087419257088e-10</v>
+        <v>6.386766588235295e-12</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.315594744309713e-11</v>
+        <v>1.596691647058825e-12</v>
       </c>
       <c r="D54" t="n">
-        <v>6.300648130361957e-11</v>
+        <v>5.7569536e-12</v>
       </c>
       <c r="E54" t="n">
-        <v>9.94997624745787e-11</v>
+        <v>1.439238400000001e-12</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02302566494148131</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.9999957556698308</v>
-      </c>
+        <v>1.744044029476967e-32</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>0.004605132988296263</v>
+        <v>-1.744044029476967e-32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.47</v>
+        <v>4.478</v>
       </c>
       <c r="B55" t="n">
-        <v>1.866490814269804e-10</v>
+        <v>1.934295552000001e-11</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.155653337006573e-11</v>
+        <v>-2.417869439999996e-12</v>
       </c>
       <c r="D55" t="n">
-        <v>7.167028678961223e-11</v>
+        <v>1.743550444307693e-11</v>
       </c>
       <c r="E55" t="n">
-        <v>1.124947076710072e-10</v>
+        <v>2.179438055384612e-12</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05764615667993232</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.9999584240986344</v>
-      </c>
+        <v>1.33181823045704e-31</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>0.01152923133598646</v>
+        <v>-1.33181823045704e-31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.478</v>
+        <v>4.4861</v>
       </c>
       <c r="B56" t="n">
-        <v>1.336359408936162e-10</v>
+        <v>1.869801879414398e-11</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.310665528290687e-11</v>
+        <v>1.857846877289699e-11</v>
       </c>
       <c r="D56" t="n">
-        <v>5.071732011146187e-11</v>
+        <v>7.919117426365456e-12</v>
       </c>
       <c r="E56" t="n">
-        <v>7.885826293207138e-11</v>
+        <v>1.687019220236296e-11</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04905019620927694</v>
+        <v>0.7705147053880561</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9999721484950836</v>
+        <v>0.6802755429315364</v>
       </c>
       <c r="H56" t="n">
-        <v>0.009810039241855388</v>
+        <v>0.3852573526940281</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.4861</v>
+        <v>4.4882</v>
       </c>
       <c r="B57" t="n">
-        <v>6.71861255785471e-11</v>
+        <v>1.986577595784171e-12</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.43337871873176e-12</v>
+        <v>-3.36111579164883e-13</v>
       </c>
       <c r="D57" t="n">
-        <v>2.537666577394655e-11</v>
+        <v>1.170899018006549e-12</v>
       </c>
       <c r="E57" t="n">
-        <v>3.932468461406689e-11</v>
+        <v>1.540827403447475e-12</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02961685541097999</v>
+        <v>10.67472113419787</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9999920548042976</v>
+        <v>0.0304734885976864</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005923371082195998</v>
+        <v>2.668680283549466</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.4882</v>
+        <v>4.4901</v>
       </c>
       <c r="B58" t="n">
-        <v>4.937859168561378e-11</v>
+        <v>2.231462363234601e-11</v>
       </c>
       <c r="C58" t="n">
-        <v>7.267167125680886e-12</v>
+        <v>3.945177479463009e-11</v>
       </c>
       <c r="D58" t="n">
-        <v>1.802804772331095e-11</v>
+        <v>6.14770295024433e-12</v>
       </c>
       <c r="E58" t="n">
-        <v>3.150766915141987e-11</v>
+        <v>1.269475619349559e-11</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03213348722873274</v>
+        <v>0.9187135406155525</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9999902666593213</v>
+        <v>0.8209096131902338</v>
       </c>
       <c r="H58" t="n">
-        <v>0.006426697445746548</v>
+        <v>0.3062378468718508</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.4901</v>
+        <v>4.4922</v>
       </c>
       <c r="B59" t="n">
-        <v>7.117566129888733e-11</v>
+        <v>4.547576327333035e-11</v>
       </c>
       <c r="C59" t="n">
-        <v>-5.457421275369593e-12</v>
+        <v>-2.862588517074347e-11</v>
       </c>
       <c r="D59" t="n">
-        <v>2.71536972968622e-11</v>
+        <v>7.507315102387162e-12</v>
       </c>
       <c r="E59" t="n">
-        <v>4.314050693977127e-11</v>
+        <v>9.540131286737398e-12</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05968869301382129</v>
+        <v>21.51485556783682</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9999546758429346</v>
+        <v>0.0002502769154694055</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01193773860276426</v>
+        <v>5.378713891959205</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.4922</v>
+        <v>4.495</v>
       </c>
       <c r="B60" t="n">
-        <v>2.519144816354683e-11</v>
+        <v>2.971121307192922e-11</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.60629831786462e-12</v>
+        <v>2.535792558227211e-11</v>
       </c>
       <c r="D60" t="n">
-        <v>9.607138782672002e-12</v>
+        <v>2.950604123543398e-12</v>
       </c>
       <c r="E60" t="n">
-        <v>1.517742857691757e-11</v>
+        <v>4.757843373673969e-12</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4347573597674251</v>
+        <v>50.538760470911</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9943179686371816</v>
+        <v>1.075026733811401e-09</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08695147195348503</v>
+        <v>10.1077520941822</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.495</v>
+        <v>4.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.933113705511776e-11</v>
+        <v>4.930847881764841e-11</v>
       </c>
       <c r="C61" t="n">
-        <v>3.106651616152416e-12</v>
+        <v>8.913601247988259e-12</v>
       </c>
       <c r="D61" t="n">
-        <v>7.069004060261229e-12</v>
+        <v>3.414784949325692e-12</v>
       </c>
       <c r="E61" t="n">
-        <v>1.229880275205774e-11</v>
+        <v>5.501021917724802e-12</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1322475592708473</v>
+        <v>22.37414090266638</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9996772628999785</v>
+        <v>0.0004444250486372721</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02644951185416946</v>
+        <v>4.474828180533275</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.5</v>
+        <v>4.5102</v>
       </c>
       <c r="B62" t="n">
-        <v>1.093630061386759e-11</v>
+        <v>6.398224088430973e-11</v>
       </c>
       <c r="C62" t="n">
-        <v>2.094607930013749e-12</v>
+        <v>2.633509828021251e-11</v>
       </c>
       <c r="D62" t="n">
-        <v>4.185352600586747e-12</v>
+        <v>3.071330411673994e-12</v>
       </c>
       <c r="E62" t="n">
-        <v>8.290291856091368e-12</v>
+        <v>4.768768223455796e-12</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5877619901516666</v>
+        <v>46.74879711373094</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9885567059647496</v>
+        <v>6.392384349757119e-09</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1175523980303333</v>
+        <v>9.349759422746189</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.5102</v>
+        <v>4.5122</v>
       </c>
       <c r="B63" t="n">
-        <v>6.539914844746701e-12</v>
+        <v>4.736717238357861e-11</v>
       </c>
       <c r="C63" t="n">
-        <v>7.287395653205138e-12</v>
+        <v>5.107981414194859e-12</v>
       </c>
       <c r="D63" t="n">
-        <v>2.364618823435427e-12</v>
+        <v>4.564890777113306e-12</v>
       </c>
       <c r="E63" t="n">
-        <v>4.616977312649151e-12</v>
+        <v>8.045958248225627e-12</v>
       </c>
       <c r="F63" t="n">
-        <v>0.94095610494811</v>
+        <v>18.79869793666904</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9671861167236134</v>
+        <v>0.002095314721941673</v>
       </c>
       <c r="H63" t="n">
-        <v>0.188191220989622</v>
+        <v>3.759739587333807</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.5122</v>
+        <v>4.5151</v>
       </c>
       <c r="B64" t="n">
-        <v>1.053143956847715e-11</v>
+        <v>3.821248107619519e-11</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.675975542059256e-12</v>
+        <v>-1.259665581119286e-11</v>
       </c>
       <c r="D64" t="n">
-        <v>4.124328440074436e-12</v>
+        <v>9.03585100507626e-12</v>
       </c>
       <c r="E64" t="n">
-        <v>5.542747808809806e-12</v>
+        <v>1.28777214555166e-11</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7507949533184168</v>
+        <v>1.999424603255197</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9800650733830384</v>
+        <v>0.8492246475243906</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1501589906636834</v>
+        <v>0.3998849206510394</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.5151</v>
+        <v>4.5201</v>
       </c>
       <c r="B65" t="n">
-        <v>3.269552952811419e-11</v>
+        <v>1.31193729642009e-11</v>
       </c>
       <c r="C65" t="n">
-        <v>1.568001759470239e-11</v>
+        <v>1.534456749505034e-11</v>
       </c>
       <c r="D65" t="n">
-        <v>1.145587116602073e-11</v>
+        <v>3.997931198055262e-12</v>
       </c>
       <c r="E65" t="n">
-        <v>2.071753408126057e-11</v>
+        <v>7.223215192748884e-12</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1458383034000805</v>
+        <v>8.082322686413331</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9995898335846161</v>
+        <v>0.1517566414803175</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0291676606800161</v>
+        <v>1.616464537282666</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.5201</v>
+        <v>4.5252</v>
       </c>
       <c r="B66" t="n">
-        <v>5.356905063860257e-11</v>
+        <v>2.69419227786472e-11</v>
       </c>
       <c r="C66" t="n">
-        <v>1.758868242346861e-11</v>
+        <v>-1.600792976119783e-11</v>
       </c>
       <c r="D66" t="n">
-        <v>1.926467601677651e-11</v>
+        <v>1.327331083328876e-11</v>
       </c>
       <c r="E66" t="n">
-        <v>3.496053003460594e-11</v>
+        <v>2.556594175483245e-11</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2907295514692642</v>
+        <v>0.3802927267991744</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9978138107508995</v>
+        <v>0.8268381062504271</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05814591029385283</v>
+        <v>0.1901463633995872</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.5252</v>
+        <v>4.5294</v>
       </c>
       <c r="B67" t="n">
-        <v>9.886548772262776e-11</v>
+        <v>9.65900277186498e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>2.787949464408502e-11</v>
+        <v>1.146506460085865e-11</v>
       </c>
       <c r="D67" t="n">
-        <v>3.542586900849129e-11</v>
+        <v>4.260546536285043e-12</v>
       </c>
       <c r="E67" t="n">
-        <v>6.370463443552198e-11</v>
+        <v>8.602923224223662e-12</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09835466674193985</v>
+        <v>2.098811990661607</v>
       </c>
       <c r="G67" t="n">
-        <v>0.999844186605145</v>
+        <v>0.7175906466428119</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01967093334838797</v>
+        <v>0.5247029976654016</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.5294</v>
+        <v>4.5351</v>
       </c>
       <c r="B68" t="n">
-        <v>1.12618716213859e-10</v>
+        <v>2.715627036666669e-11</v>
       </c>
       <c r="C68" t="n">
-        <v>1.233591324471491e-11</v>
+        <v>-2.342199226666671e-11</v>
       </c>
       <c r="D68" t="n">
-        <v>4.135039916153143e-11</v>
+        <v>3.287262260255813e-11</v>
       </c>
       <c r="E68" t="n">
-        <v>7.133914836204458e-11</v>
+        <v>5.938704455302817e-11</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0910229011686782</v>
+        <v>4.531340269149365e-31</v>
       </c>
       <c r="G68" t="n">
-        <v>0.999871285400432</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.01820458023373564</v>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.5351</v>
+        <v>4.58</v>
       </c>
       <c r="B69" t="n">
-        <v>1.650641667715272e-10</v>
+        <v>5.253120385882352e-11</v>
       </c>
       <c r="C69" t="n">
-        <v>3.683796226380421e-11</v>
+        <v>1.313280096470589e-11</v>
       </c>
       <c r="D69" t="n">
-        <v>5.97791670347026e-11</v>
+        <v>4.735098729411764e-11</v>
       </c>
       <c r="E69" t="n">
-        <v>1.012168740368672e-10</v>
+        <v>1.183774682352942e-11</v>
       </c>
       <c r="F69" t="n">
-        <v>0.150305551582536</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.9995584000397224</v>
-      </c>
+        <v>1.649927266125326e-32</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>0.03006111031650719</v>
+        <v>-1.649927266125326e-32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.5402</v>
+        <v>4.5901</v>
       </c>
       <c r="B70" t="n">
-        <v>1.968582436713428e-10</v>
+        <v>8.478813965403714e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>3.121120439797507e-11</v>
+        <v>1.471549142956691e-12</v>
       </c>
       <c r="D70" t="n">
-        <v>7.201619658908599e-11</v>
+        <v>5.182119750702603e-13</v>
       </c>
       <c r="E70" t="n">
-        <v>1.251912233211112e-10</v>
+        <v>1.961408267465639e-12</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1005793448827752</v>
+        <v>18.84119749132896</v>
       </c>
       <c r="G70" t="n">
-        <v>0.999835356191639</v>
+        <v>0.0002948663518004641</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02011586897655505</v>
+        <v>6.28039916377632</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.5498</v>
+        <v>4.6003</v>
       </c>
       <c r="B71" t="n">
-        <v>2.987387467062752e-10</v>
+        <v>1.471510724659423e-11</v>
       </c>
       <c r="C71" t="n">
-        <v>1.88524853390428e-11</v>
+        <v>-6.519191950823438e-12</v>
       </c>
       <c r="D71" t="n">
-        <v>1.108219723814888e-10</v>
+        <v>8.490114864829096e-12</v>
       </c>
       <c r="E71" t="n">
-        <v>1.85239676186056e-10</v>
+        <v>1.043714181771858e-11</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04506024287021394</v>
+        <v>1.678210684544469</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9999774395088101</v>
+        <v>0.4320969294097979</v>
       </c>
       <c r="H71" t="n">
-        <v>0.009012048574042787</v>
+        <v>0.8391053422722343</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5602</v>
+        <v>4.61</v>
       </c>
       <c r="B72" t="n">
-        <v>4.677855061920994e-10</v>
+        <v>1.068188533666184e-10</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.382630578537407e-11</v>
+        <v>1.808780302352024e-10</v>
       </c>
       <c r="D72" t="n">
-        <v>1.764772965532864e-10</v>
+        <v>7.254978434245997e-11</v>
       </c>
       <c r="E72" t="n">
-        <v>2.80806019024822e-10</v>
+        <v>1.527209943369646e-10</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02431952588072883</v>
+        <v>0.01156898999891246</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9999951363094536</v>
+        <v>0.9143453315242581</v>
       </c>
       <c r="H72" t="n">
-        <v>0.004863905176145765</v>
+        <v>0.01156898999891246</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.5701</v>
+        <v>4.6202</v>
       </c>
       <c r="B73" t="n">
-        <v>4.31974638053619e-10</v>
+        <v>6.961287746666956e-11</v>
       </c>
       <c r="C73" t="n">
-        <v>3.541323101972644e-13</v>
+        <v>-1.032761754666716e-10</v>
       </c>
       <c r="D73" t="n">
-        <v>1.62553764884837e-10</v>
+        <v>6.586242048308602e-11</v>
       </c>
       <c r="E73" t="n">
-        <v>2.675092276176245e-10</v>
+        <v>1.059690485841415e-10</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06363232995407198</v>
+        <v>3.977252954564021e-27</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9999468891015545</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0127264659908144</v>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.58</v>
+        <v>4.6299</v>
       </c>
       <c r="B74" t="n">
-        <v>2.093653868036132e-10</v>
+        <v>3.568962544112771e-11</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.905972312347605e-11</v>
+        <v>5.297435736120928e-11</v>
       </c>
       <c r="D74" t="n">
-        <v>7.987537274074941e-11</v>
+        <v>2.450568854759631e-11</v>
       </c>
       <c r="E74" t="n">
-        <v>1.279756536068393e-10</v>
+        <v>5.72123643246163e-11</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1615398595597413</v>
+        <v>0.3232089066255457</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9994733077813065</v>
+        <v>0.8507776602789601</v>
       </c>
       <c r="H74" t="n">
-        <v>0.03230797191194826</v>
+        <v>0.1616044533127728</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.5901</v>
+        <v>4.6352</v>
       </c>
       <c r="B75" t="n">
-        <v>1.045618562108055e-10</v>
+        <v>4.512262476417872e-11</v>
       </c>
       <c r="C75" t="n">
-        <v>6.596510848367161e-12</v>
+        <v>-4.934235254576143e-11</v>
       </c>
       <c r="D75" t="n">
-        <v>3.841046399002205e-11</v>
+        <v>1.645882368857153e-11</v>
       </c>
       <c r="E75" t="n">
-        <v>6.194872273191663e-11</v>
+        <v>1.830393854041968e-11</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03923930454561153</v>
+        <v>10.09929327678891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9999840018548801</v>
+        <v>0.07247020818059434</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007847860909122307</v>
+        <v>2.019858655357783</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.6003</v>
+        <v>4.64</v>
       </c>
       <c r="B76" t="n">
-        <v>8.041468117889478e-11</v>
+        <v>3.054325559633179e-11</v>
       </c>
       <c r="C76" t="n">
-        <v>1.501509828736603e-11</v>
+        <v>-4.856229290560326e-12</v>
       </c>
       <c r="D76" t="n">
-        <v>2.925408888093415e-11</v>
+        <v>9.882198787689212e-12</v>
       </c>
       <c r="E76" t="n">
-        <v>5.013612468530568e-11</v>
+        <v>1.330684913753551e-11</v>
       </c>
       <c r="F76" t="n">
-        <v>0.101723210532332</v>
+        <v>7.65383600542986</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9998307040004079</v>
+        <v>0.1763736231925669</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02034464210646641</v>
+        <v>1.530767201085972</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="B77" t="n">
-        <v>1.964217030147772e-10</v>
+        <v>8.081360890234306e-11</v>
       </c>
       <c r="C77" t="n">
-        <v>3.522779495942235e-11</v>
+        <v>5.697693890509033e-11</v>
       </c>
       <c r="D77" t="n">
-        <v>7.108894424868671e-11</v>
+        <v>1.057034872604409e-11</v>
       </c>
       <c r="E77" t="n">
-        <v>1.236518586626639e-10</v>
+        <v>1.717369602226457e-11</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01526507890561983</v>
+        <v>22.21973334852175</v>
       </c>
       <c r="G77" t="n">
-        <v>0.999998476896846</v>
+        <v>0.000475555561187374</v>
       </c>
       <c r="H77" t="n">
-        <v>0.003053015781123966</v>
+        <v>4.443946669704349</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.6202</v>
+        <v>4.6701</v>
       </c>
       <c r="B78" t="n">
-        <v>1.930594617039328e-10</v>
+        <v>1.317579131285843e-10</v>
       </c>
       <c r="C78" t="n">
-        <v>7.920297132066584e-11</v>
+        <v>-2.640856924955487e-12</v>
       </c>
       <c r="D78" t="n">
-        <v>6.823941320998111e-11</v>
+        <v>8.99436358633607e-12</v>
       </c>
       <c r="E78" t="n">
-        <v>1.226599608933326e-10</v>
+        <v>1.378466470173987e-11</v>
       </c>
       <c r="F78" t="n">
-        <v>0.138445251290927</v>
+        <v>30.27463116020718</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9996389081001354</v>
+        <v>1.3021809399213e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02768905025818539</v>
+        <v>6.054926232041436</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.6299</v>
+        <v>4.6802</v>
       </c>
       <c r="B79" t="n">
-        <v>1.554706249133348e-10</v>
+        <v>1.012864118657035e-10</v>
       </c>
       <c r="C79" t="n">
-        <v>6.712989425233947e-11</v>
+        <v>2.081302119666993e-11</v>
       </c>
       <c r="D79" t="n">
-        <v>5.453475184427555e-11</v>
+        <v>5.952216814094369e-12</v>
       </c>
       <c r="E79" t="n">
-        <v>9.943956427690048e-11</v>
+        <v>8.591934623958925e-12</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0750165955018044</v>
+        <v>48.57013452723257</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9999201783687883</v>
+        <v>2.716694310500386e-09</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01500331910036088</v>
+        <v>9.714026905446513</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.6352</v>
+        <v>4.6899</v>
       </c>
       <c r="B80" t="n">
-        <v>8.964334765185761e-11</v>
+        <v>1.115676517437789e-10</v>
       </c>
       <c r="C80" t="n">
-        <v>1.823662686051795e-11</v>
+        <v>4.587852845766579e-11</v>
       </c>
       <c r="D80" t="n">
-        <v>3.225634059484385e-11</v>
+        <v>5.315256494739156e-12</v>
       </c>
       <c r="E80" t="n">
-        <v>5.519801913648388e-11</v>
+        <v>8.370232531361219e-12</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01976869351140464</v>
+        <v>65.25307750631396</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9999970977925063</v>
+        <v>9.931250846645273e-13</v>
       </c>
       <c r="H80" t="n">
-        <v>0.003953738702280929</v>
+        <v>13.05061550126279</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.64</v>
+        <v>4.71</v>
       </c>
       <c r="B81" t="n">
-        <v>5.57374576752693e-11</v>
+        <v>1.394721406192217e-10</v>
       </c>
       <c r="C81" t="n">
-        <v>1.12014541136621e-11</v>
+        <v>5.199935322898167e-11</v>
       </c>
       <c r="D81" t="n">
-        <v>2.026937639252753e-11</v>
+        <v>4.663903893202334e-12</v>
       </c>
       <c r="E81" t="n">
-        <v>3.672341550083432e-11</v>
+        <v>7.704890208331212e-12</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1118626513655939</v>
+        <v>49.63786694324533</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9997860846273994</v>
+        <v>1.643564192661254e-09</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02237253027311877</v>
+        <v>9.927573388649067</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.65</v>
+        <v>4.73</v>
       </c>
       <c r="B82" t="n">
-        <v>5.299068329814045e-11</v>
+        <v>1.387544318734333e-10</v>
       </c>
       <c r="C82" t="n">
-        <v>7.655626198748874e-12</v>
+        <v>3.066425258947733e-11</v>
       </c>
       <c r="D82" t="n">
-        <v>1.965435299499275e-11</v>
+        <v>5.263375550318671e-12</v>
       </c>
       <c r="E82" t="n">
-        <v>3.45415277888521e-11</v>
+        <v>8.265166295388058e-12</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1524919539560468</v>
+        <v>58.67918593162723</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9995425208432971</v>
+        <v>2.277876362220782e-11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03049839079120936</v>
+        <v>11.73583718632545</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.6701</v>
+        <v>4.75</v>
       </c>
       <c r="B83" t="n">
-        <v>2.994371143565026e-11</v>
+        <v>1.653017814317232e-10</v>
       </c>
       <c r="C83" t="n">
-        <v>1.57771607959515e-11</v>
+        <v>1.291147663433093e-11</v>
       </c>
       <c r="D83" t="n">
-        <v>1.042511792907332e-11</v>
+        <v>7.317375280652125e-12</v>
       </c>
       <c r="E83" t="n">
-        <v>1.989136962301081e-11</v>
+        <v>1.098380333695607e-11</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09162048560444187</v>
+        <v>24.82439898982484</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9998691902305346</v>
+        <v>0.000150642814856877</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01832409712088837</v>
+        <v>4.964879797964969</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.6802</v>
+        <v>4.7552</v>
       </c>
       <c r="B84" t="n">
-        <v>1.769702042844291e-11</v>
+        <v>9.595173566158781e-11</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.79169802181804e-12</v>
+        <v>7.376524833952311e-11</v>
       </c>
       <c r="D84" t="n">
-        <v>6.698583053931356e-12</v>
+        <v>8.118016102685255e-12</v>
       </c>
       <c r="E84" t="n">
-        <v>1.008431209410698e-11</v>
+        <v>1.247403925964125e-11</v>
       </c>
       <c r="F84" t="n">
-        <v>0.183350254230276</v>
+        <v>25.57004745107627</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9992827060302252</v>
+        <v>0.0001081054286986686</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0366700508460552</v>
+        <v>5.114009490215254</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.6899</v>
+        <v>4.7589</v>
       </c>
       <c r="B85" t="n">
-        <v>8.354169122574381e-12</v>
+        <v>1.273487404491703e-10</v>
       </c>
       <c r="C85" t="n">
-        <v>1.083444333446251e-11</v>
+        <v>7.744780935403964e-11</v>
       </c>
       <c r="D85" t="n">
-        <v>3.154698206975247e-12</v>
+        <v>9.310412336209998e-12</v>
       </c>
       <c r="E85" t="n">
-        <v>6.08665438944127e-12</v>
+        <v>1.424822959273033e-11</v>
       </c>
       <c r="F85" t="n">
-        <v>1.449564187055315</v>
+        <v>19.04871518737073</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9188156782525986</v>
+        <v>0.001882386662328591</v>
       </c>
       <c r="H85" t="n">
-        <v>0.289912837411063</v>
+        <v>3.809743037474146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.71</v>
+        <v>4.77</v>
       </c>
       <c r="B86" t="n">
-        <v>1.314365963799167e-11</v>
+        <v>1.450341791875642e-10</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.832376433635652e-12</v>
+        <v>7.928882817087387e-12</v>
       </c>
       <c r="D86" t="n">
-        <v>5.095379974886499e-12</v>
+        <v>1.210221865546651e-11</v>
       </c>
       <c r="E86" t="n">
-        <v>7.850462696312026e-12</v>
+        <v>1.790320064972609e-11</v>
       </c>
       <c r="F86" t="n">
-        <v>0.226547729792119</v>
+        <v>5.792957385015161</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9988012283469148</v>
+        <v>0.3268892237722207</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0453095459584238</v>
+        <v>1.158591477003032</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.73</v>
+        <v>4.775</v>
       </c>
       <c r="B87" t="n">
-        <v>8.091583878621867e-12</v>
+        <v>3.883997353402846e-11</v>
       </c>
       <c r="C87" t="n">
-        <v>4.210792709601629e-12</v>
+        <v>7.421901618386862e-11</v>
       </c>
       <c r="D87" t="n">
-        <v>2.934718607241227e-12</v>
+        <v>5.580256780785304e-12</v>
       </c>
       <c r="E87" t="n">
-        <v>5.14956798720016e-12</v>
+        <v>1.110205001145531e-11</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6527992967405795</v>
+        <v>41.8158610419454</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9854583968208532</v>
+        <v>6.418024485879755e-08</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1305598593481159</v>
+        <v>8.363172208389079</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.75</v>
+        <v>4.7802</v>
       </c>
       <c r="B88" t="n">
-        <v>1.253071040273263e-11</v>
+        <v>3.611170441925014e-12</v>
       </c>
       <c r="C88" t="n">
-        <v>1.134520980090392e-11</v>
+        <v>-2.099583682782499e-12</v>
       </c>
       <c r="D88" t="n">
-        <v>4.446566767492053e-12</v>
+        <v>2.185715854997302e-12</v>
       </c>
       <c r="E88" t="n">
-        <v>8.347787154280772e-12</v>
+        <v>2.549283922523108e-12</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6614239810806749</v>
+        <v>23.19123729691004</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9850185510890567</v>
+        <v>0.0003102995617798749</v>
       </c>
       <c r="H88" t="n">
-        <v>0.132284796216135</v>
+        <v>4.638247459382008</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.7552</v>
+        <v>4.7901</v>
       </c>
       <c r="B89" t="n">
-        <v>2.83922640818239e-11</v>
+        <v>8.336153571133048e-11</v>
       </c>
       <c r="C89" t="n">
-        <v>7.846924892330523e-12</v>
+        <v>5.219711786372916e-11</v>
       </c>
       <c r="D89" t="n">
-        <v>1.075321678822595e-11</v>
+        <v>1.896269570975854e-11</v>
       </c>
       <c r="E89" t="n">
-        <v>2.181565492410676e-11</v>
+        <v>2.900749570681862e-11</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5057657962382814</v>
+        <v>5.703437253912196</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9919106513015414</v>
+        <v>0.3361533302308415</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1011531592476563</v>
+        <v>1.140687450782439</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.7589</v>
+        <v>4.7999</v>
       </c>
       <c r="B90" t="n">
-        <v>3.195008002770957e-11</v>
+        <v>1.131780828322725e-10</v>
       </c>
       <c r="C90" t="n">
-        <v>8.595424445749726e-12</v>
+        <v>7.072981924431063e-11</v>
       </c>
       <c r="D90" t="n">
-        <v>1.169045348809394e-11</v>
+        <v>1.674731629602042e-11</v>
       </c>
       <c r="E90" t="n">
-        <v>2.201271082535326e-11</v>
+        <v>2.562852768750301e-11</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2317582756946504</v>
+        <v>8.880149082707307</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9987334479125592</v>
+        <v>0.1139411626182874</v>
       </c>
       <c r="H90" t="n">
-        <v>0.04635165513893008</v>
+        <v>1.776029816541461</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="B91" t="n">
-        <v>4.013980988107395e-11</v>
+        <v>1.634227803411584e-10</v>
       </c>
       <c r="C91" t="n">
-        <v>1.005952499220253e-11</v>
+        <v>4.225651152790806e-11</v>
       </c>
       <c r="D91" t="n">
-        <v>1.471849413006665e-11</v>
+        <v>1.551518844118881e-11</v>
       </c>
       <c r="E91" t="n">
-        <v>2.665329923510692e-11</v>
+        <v>2.507036302866387e-11</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2307222731826767</v>
+        <v>5.824064898580009</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9987470947430586</v>
+        <v>0.3237163746049008</v>
       </c>
       <c r="H91" t="n">
-        <v>0.04614445463653534</v>
+        <v>1.164812979716002</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.775</v>
+        <v>4.8122</v>
       </c>
       <c r="B92" t="n">
-        <v>4.967463834010176e-11</v>
+        <v>1.552614393461954e-10</v>
       </c>
       <c r="C92" t="n">
-        <v>1.002594561903248e-11</v>
+        <v>6.099420945553615e-11</v>
       </c>
       <c r="D92" t="n">
-        <v>1.800305014766623e-11</v>
+        <v>1.053979711785248e-11</v>
       </c>
       <c r="E92" t="n">
-        <v>3.10526505760778e-11</v>
+        <v>1.681849748362632e-11</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0925242514454247</v>
+        <v>24.44761474901802</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9998659836177743</v>
+        <v>0.0001780639214194879</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01850485028908494</v>
+        <v>4.889522949803604</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.7802</v>
+        <v>4.8153</v>
       </c>
       <c r="B93" t="n">
-        <v>8.399848120139889e-11</v>
+        <v>1.716315660822898e-10</v>
       </c>
       <c r="C93" t="n">
-        <v>1.993380308989901e-11</v>
+        <v>6.220954306034439e-11</v>
       </c>
       <c r="D93" t="n">
-        <v>3.016510862625288e-11</v>
+        <v>8.51285964038617e-12</v>
       </c>
       <c r="E93" t="n">
-        <v>5.342062429078241e-11</v>
+        <v>1.380026208201111e-11</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0506430665369524</v>
+        <v>27.9992495191227</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9999698491117217</v>
+        <v>3.641106436800671e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01012861330739048</v>
+        <v>5.59984990382454</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.7901</v>
+        <v>4.8201</v>
       </c>
       <c r="B94" t="n">
-        <v>1.04190504494539e-10</v>
+        <v>1.336404815499466e-10</v>
       </c>
       <c r="C94" t="n">
-        <v>2.080449907811803e-11</v>
+        <v>5.269443885040137e-11</v>
       </c>
       <c r="D94" t="n">
-        <v>3.793020402351511e-11</v>
+        <v>5.968553823269961e-12</v>
       </c>
       <c r="E94" t="n">
-        <v>6.76279999840332e-11</v>
+        <v>9.824028279211362e-12</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09705725693195988</v>
+        <v>18.54434228776682</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9998492046315012</v>
+        <v>0.002336156465762631</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01941145138639198</v>
+        <v>3.708868457553363</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.7999</v>
+        <v>4.8299</v>
       </c>
       <c r="B95" t="n">
-        <v>9.885729526763826e-11</v>
+        <v>1.685089887046116e-10</v>
       </c>
       <c r="C95" t="n">
-        <v>1.797475191303618e-11</v>
+        <v>5.730795640544241e-11</v>
       </c>
       <c r="D95" t="n">
-        <v>3.587782255617962e-11</v>
+        <v>5.412843148159911e-12</v>
       </c>
       <c r="E95" t="n">
-        <v>6.377964530104902e-11</v>
+        <v>8.89954435332149e-12</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09033316789317274</v>
+        <v>41.06973912488736</v>
       </c>
       <c r="G95" t="n">
-        <v>0.999873678899688</v>
+        <v>9.083278340791213e-08</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01806663357863455</v>
+        <v>8.213947824977472</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="B96" t="n">
-        <v>4.635295953346971e-11</v>
+        <v>1.909021076992852e-10</v>
       </c>
       <c r="C96" t="n">
-        <v>1.739425071710505e-11</v>
+        <v>5.41193762597642e-11</v>
       </c>
       <c r="D96" t="n">
-        <v>1.648479046588827e-11</v>
+        <v>5.536079713184744e-12</v>
       </c>
       <c r="E96" t="n">
-        <v>3.217579277547601e-11</v>
+        <v>9.146905576959534e-12</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09203812907549656</v>
+        <v>40.98825673349238</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9998677140950524</v>
+        <v>9.4341763789488e-08</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01840762581509931</v>
+        <v>8.197651346698475</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.8122</v>
+        <v>4.8663</v>
       </c>
       <c r="B97" t="n">
-        <v>2.496770758144025e-11</v>
+        <v>1.896482809694714e-10</v>
       </c>
       <c r="C97" t="n">
-        <v>5.753725970287493e-12</v>
+        <v>4.405544135570739e-11</v>
       </c>
       <c r="D97" t="n">
-        <v>9.73336305600776e-12</v>
+        <v>5.983073388419086e-12</v>
       </c>
       <c r="E97" t="n">
-        <v>1.835334632546358e-11</v>
+        <v>9.856984796187067e-12</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6851196957821786</v>
+        <v>26.56120670539515</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9837753485458661</v>
+        <v>6.943397424736292e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1370239391564357</v>
+        <v>5.312241341079029</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.8153</v>
+        <v>4.8899</v>
       </c>
       <c r="B98" t="n">
-        <v>2.084141567949632e-11</v>
+        <v>2.041952238275474e-10</v>
       </c>
       <c r="C98" t="n">
-        <v>3.506140723141516e-13</v>
+        <v>6.830565917407287e-11</v>
       </c>
       <c r="D98" t="n">
-        <v>7.770753608595219e-12</v>
+        <v>6.18741130718451e-12</v>
       </c>
       <c r="E98" t="n">
-        <v>1.227884892606494e-11</v>
+        <v>1.023931451373856e-11</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4327276494886355</v>
+        <v>51.56316286236203</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9943800390889674</v>
+        <v>6.630463950310537e-10</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0865455298977271</v>
+        <v>10.31263257247241</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.8201</v>
+        <v>4.8999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.385032453762353e-11</v>
+        <v>1.771208649243775e-10</v>
       </c>
       <c r="C99" t="n">
-        <v>-6.245049332552726e-13</v>
+        <v>4.176343549061488e-11</v>
       </c>
       <c r="D99" t="n">
-        <v>5.305325392513951e-12</v>
+        <v>8.373203447321753e-12</v>
       </c>
       <c r="E99" t="n">
-        <v>8.316298601935607e-12</v>
+        <v>1.331328518106128e-11</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6313568818784524</v>
+        <v>40.95516119059999</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9865225804516506</v>
+        <v>9.580527185236149e-08</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1262713763756905</v>
+        <v>8.191032238119998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.8299</v>
+        <v>4.9101</v>
       </c>
       <c r="B100" t="n">
-        <v>1.116654780268244e-11</v>
+        <v>1.854026900856676e-10</v>
       </c>
       <c r="C100" t="n">
-        <v>4.613792335212427e-12</v>
+        <v>7.627396375204804e-11</v>
       </c>
       <c r="D100" t="n">
-        <v>4.077603674082662e-12</v>
+        <v>8.939550448385312e-12</v>
       </c>
       <c r="E100" t="n">
-        <v>7.804760792427712e-12</v>
+        <v>1.427398288746166e-11</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4627444973937072</v>
+        <v>52.37901622611952</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9934240062086178</v>
+        <v>4.51049979344776e-10</v>
       </c>
       <c r="H100" t="n">
-        <v>0.09254889947874143</v>
+        <v>10.4758032452239</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.85</v>
+        <v>4.92</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12624179977412e-11</v>
+        <v>1.11644149963943e-10</v>
       </c>
       <c r="C101" t="n">
-        <v>2.644590080992349e-12</v>
+        <v>1.10932705323333e-10</v>
       </c>
       <c r="D101" t="n">
-        <v>4.436911372695761e-12</v>
+        <v>7.398873943164781e-12</v>
       </c>
       <c r="E101" t="n">
-        <v>8.362376116552227e-12</v>
+        <v>1.23835348658925e-11</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7371867344346924</v>
+        <v>89.66241906018455</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9808656161658393</v>
+        <v>7.911081264286699e-18</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1474373468869385</v>
+        <v>17.93248381203691</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.8663</v>
+        <v>4.9262</v>
       </c>
       <c r="B102" t="n">
-        <v>1.206259218055401e-11</v>
+        <v>1.401419315062389e-10</v>
       </c>
       <c r="C102" t="n">
-        <v>7.149419865622942e-12</v>
+        <v>6.269031146718119e-11</v>
       </c>
       <c r="D102" t="n">
-        <v>4.741124143770878e-12</v>
+        <v>7.537698609572764e-12</v>
       </c>
       <c r="E102" t="n">
-        <v>1.060556652806975e-11</v>
+        <v>1.223554311975325e-11</v>
       </c>
       <c r="F102" t="n">
-        <v>1.209287769203852</v>
+        <v>108.4212334513154</v>
       </c>
       <c r="G102" t="n">
-        <v>0.94398323142564</v>
+        <v>8.832407648845991e-22</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2418575538407703</v>
+        <v>21.68424669026309</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.8899</v>
+        <v>4.9302</v>
       </c>
       <c r="B103" t="n">
-        <v>1.975778634620912e-11</v>
+        <v>1.489350675246438e-10</v>
       </c>
       <c r="C103" t="n">
-        <v>4.219329951760782e-12</v>
+        <v>1.068646619274183e-10</v>
       </c>
       <c r="D103" t="n">
-        <v>7.943651005202738e-12</v>
+        <v>9.289846526803771e-12</v>
       </c>
       <c r="E103" t="n">
-        <v>1.475809452560299e-11</v>
+        <v>1.544029360001951e-11</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9369344840813243</v>
+        <v>66.79620854045658</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9674903879226892</v>
+        <v>4.749955262245797e-13</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1873868968162649</v>
+        <v>13.35924170809131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.8999</v>
+        <v>4.9369</v>
       </c>
       <c r="B104" t="n">
-        <v>3.152541049781435e-11</v>
+        <v>1.805228742816561e-10</v>
       </c>
       <c r="C104" t="n">
-        <v>4.849198708366125e-12</v>
+        <v>4.912094478267991e-12</v>
       </c>
       <c r="D104" t="n">
-        <v>1.195623765497411e-11</v>
+        <v>1.038756771260496e-11</v>
       </c>
       <c r="E104" t="n">
-        <v>2.132441932790387e-11</v>
+        <v>1.613493798705772e-11</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3795011930819955</v>
+        <v>90.88248868781828</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9958754447163349</v>
+        <v>8.551103800641382e-19</v>
       </c>
       <c r="H104" t="n">
-        <v>0.07590023861639909</v>
+        <v>22.72062217195457</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.9101</v>
+        <v>4.9467</v>
       </c>
       <c r="B105" t="n">
-        <v>3.902904188813314e-11</v>
+        <v>1.666244858786624e-10</v>
       </c>
       <c r="C105" t="n">
-        <v>6.632702445423599e-12</v>
+        <v>4.249702703798667e-11</v>
       </c>
       <c r="D105" t="n">
-        <v>1.484868717752382e-11</v>
+        <v>9.320459221012517e-12</v>
       </c>
       <c r="E105" t="n">
-        <v>2.659316608514525e-11</v>
+        <v>1.607692736583596e-11</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4901356469993129</v>
+        <v>100.0108118459043</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9924800336768966</v>
+        <v>9.784628711999336e-21</v>
       </c>
       <c r="H105" t="n">
-        <v>0.09802712939986258</v>
+        <v>25.00270296147607</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.92</v>
+        <v>4.9503</v>
       </c>
       <c r="B106" t="n">
-        <v>5.87965222496325e-11</v>
+        <v>1.904941640632197e-10</v>
       </c>
       <c r="C106" t="n">
-        <v>5.915261625135042e-12</v>
+        <v>1.962741405103971e-11</v>
       </c>
       <c r="D106" t="n">
-        <v>2.220972052119122e-11</v>
+        <v>1.120522002089056e-11</v>
       </c>
       <c r="E106" t="n">
-        <v>3.887555883814014e-11</v>
+        <v>1.827012078018108e-11</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2217924157297481</v>
+        <v>49.73035832844526</v>
       </c>
       <c r="G106" t="n">
-        <v>0.9988612295590241</v>
+        <v>4.110601614614262e-10</v>
       </c>
       <c r="H106" t="n">
-        <v>0.04435848314594963</v>
+        <v>12.43258958211132</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.9262</v>
+        <v>4.9568</v>
       </c>
       <c r="B107" t="n">
-        <v>6.094193303933245e-11</v>
+        <v>1.759587739009337e-10</v>
       </c>
       <c r="C107" t="n">
-        <v>1.403933926574069e-11</v>
+        <v>-1.097961966351064e-11</v>
       </c>
       <c r="D107" t="n">
-        <v>2.335594194685027e-11</v>
+        <v>1.159168312887356e-11</v>
       </c>
       <c r="E107" t="n">
-        <v>4.421547122911369e-11</v>
+        <v>1.849971057822219e-11</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5181037834086832</v>
+        <v>96.73141879176568</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9914453970343793</v>
+        <v>4.880504059344739e-20</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1036207566817366</v>
+        <v>24.18285469794142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.9302</v>
+        <v>4.9619</v>
       </c>
       <c r="B108" t="n">
-        <v>5.919835391485178e-11</v>
+        <v>1.966379286017297e-10</v>
       </c>
       <c r="C108" t="n">
-        <v>1.882355742114126e-11</v>
+        <v>3.666104409872154e-13</v>
       </c>
       <c r="D108" t="n">
-        <v>2.286567136151993e-11</v>
+        <v>1.217155035163207e-11</v>
       </c>
       <c r="E108" t="n">
-        <v>4.461685609696354e-11</v>
+        <v>1.901075212053542e-11</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7385259675505731</v>
+        <v>66.35320379031282</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9807875650283775</v>
+        <v>1.334485158733047e-13</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1477051935101146</v>
+        <v>16.5883009475782</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.9369</v>
+        <v>4.9647</v>
       </c>
       <c r="B109" t="n">
-        <v>7.342623556136916e-11</v>
+        <v>1.617527328327147e-10</v>
       </c>
       <c r="C109" t="n">
-        <v>1.760913024040199e-11</v>
+        <v>-7.48867194067957e-12</v>
       </c>
       <c r="D109" t="n">
-        <v>2.795001032060239e-11</v>
+        <v>1.192112985441735e-11</v>
       </c>
       <c r="E109" t="n">
-        <v>5.276975361927604e-11</v>
+        <v>1.897922044536315e-11</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4648060123980454</v>
+        <v>93.76947687303283</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9933553421939975</v>
+        <v>2.081679814709747e-19</v>
       </c>
       <c r="H109" t="n">
-        <v>0.09296120247960908</v>
+        <v>23.44236921825821</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.9467</v>
+        <v>4.9679</v>
       </c>
       <c r="B110" t="n">
-        <v>8.690159085618545e-11</v>
+        <v>1.920327674190428e-10</v>
       </c>
       <c r="C110" t="n">
-        <v>2.266008431802094e-11</v>
+        <v>-8.611679934547392e-12</v>
       </c>
       <c r="D110" t="n">
-        <v>3.276560139317494e-11</v>
+        <v>1.280034625974125e-11</v>
       </c>
       <c r="E110" t="n">
-        <v>6.281681626506364e-11</v>
+        <v>1.997933292436483e-11</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4400317641583936</v>
+        <v>40.47180900410409</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9941549288293144</v>
+        <v>3.457236600641848e-08</v>
       </c>
       <c r="H110" t="n">
-        <v>0.08800635283167871</v>
+        <v>10.11795225102602</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.9503</v>
+        <v>4.97</v>
       </c>
       <c r="B111" t="n">
-        <v>9.04319660991147e-11</v>
+        <v>2.181666226340016e-10</v>
       </c>
       <c r="C111" t="n">
-        <v>1.66915811276704e-11</v>
+        <v>2.405372774571239e-12</v>
       </c>
       <c r="D111" t="n">
-        <v>3.493715755463675e-11</v>
+        <v>1.593517613149189e-11</v>
       </c>
       <c r="E111" t="n">
-        <v>6.390959032731481e-11</v>
+        <v>2.503022737077098e-11</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5374544703128911</v>
+        <v>80.59336750448254</v>
       </c>
       <c r="G111" t="n">
-        <v>0.990687590384015</v>
+        <v>1.304030608298588e-16</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1074908940625782</v>
+        <v>20.14834187612064</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.9568</v>
+        <v>4.9728</v>
       </c>
       <c r="B112" t="n">
-        <v>9.843059106868136e-11</v>
+        <v>1.351421740109699e-10</v>
       </c>
       <c r="C112" t="n">
-        <v>1.951243427348934e-11</v>
+        <v>6.671606178896014e-11</v>
       </c>
       <c r="D112" t="n">
-        <v>3.713687942462156e-11</v>
+        <v>8.243646748323247e-12</v>
       </c>
       <c r="E112" t="n">
-        <v>6.774405250616145e-11</v>
+        <v>1.353649835525766e-11</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3979623453763644</v>
+        <v>86.66721565619446</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9953855316846142</v>
+        <v>3.365107208817879e-17</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07959246907527288</v>
+        <v>17.33344313123889</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.9619</v>
+        <v>4.9746</v>
       </c>
       <c r="B113" t="n">
-        <v>9.495567682233735e-11</v>
+        <v>1.737789130151406e-10</v>
       </c>
       <c r="C113" t="n">
-        <v>2.194695229667087e-11</v>
+        <v>3.816626919524106e-12</v>
       </c>
       <c r="D113" t="n">
-        <v>3.646047407433831e-11</v>
+        <v>1.254768431873094e-11</v>
       </c>
       <c r="E113" t="n">
-        <v>6.931179174682098e-11</v>
+        <v>1.948729359067324e-11</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5360075614606631</v>
+        <v>53.91497431387415</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9907454419829091</v>
+        <v>5.482898620911663e-11</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1072015122921326</v>
+        <v>13.47874357846854</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.9647</v>
+        <v>4.9847</v>
       </c>
       <c r="B114" t="n">
-        <v>1.012286900076383e-10</v>
+        <v>7.867542034961396e-11</v>
       </c>
       <c r="C114" t="n">
-        <v>2.065285644690251e-11</v>
+        <v>1.560044692218343e-10</v>
       </c>
       <c r="D114" t="n">
-        <v>3.790505351502113e-11</v>
+        <v>4.157895585403561e-12</v>
       </c>
       <c r="E114" t="n">
-        <v>6.958671832842139e-11</v>
+        <v>8.30789610893232e-12</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3329745320219553</v>
+        <v>180.521914924566</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9969765304981701</v>
+        <v>4.139758992818536e-37</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06659490640439106</v>
+        <v>36.10438298491321</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.9679</v>
+        <v>4.9901</v>
       </c>
       <c r="B115" t="n">
-        <v>1.01003980195557e-10</v>
+        <v>1.086526773040373e-10</v>
       </c>
       <c r="C115" t="n">
-        <v>1.535332626999439e-11</v>
+        <v>1.824115560818096e-10</v>
       </c>
       <c r="D115" t="n">
-        <v>3.841311892541119e-11</v>
+        <v>6.408571272805304e-12</v>
       </c>
       <c r="E115" t="n">
-        <v>6.918301664145527e-11</v>
+        <v>1.216060498618614e-11</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3655938167589888</v>
+        <v>117.3956498249697</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9962245163350081</v>
+        <v>1.117391981391658e-23</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07311876335179776</v>
+        <v>23.47912996499394</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.97</v>
+        <v>4.9947</v>
       </c>
       <c r="B116" t="n">
-        <v>9.989812903754246e-11</v>
+        <v>1.506344691794466e-10</v>
       </c>
       <c r="C116" t="n">
-        <v>2.487697797478305e-11</v>
+        <v>5.584673925068827e-11</v>
       </c>
       <c r="D116" t="n">
-        <v>3.812235310741709e-11</v>
+        <v>7.691447575644564e-12</v>
       </c>
       <c r="E116" t="n">
-        <v>7.235491535235954e-11</v>
+        <v>1.235054865366886e-11</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5371318120209427</v>
+        <v>76.18376963645025</v>
       </c>
       <c r="G116" t="n">
-        <v>0.990700507836222</v>
+        <v>5.266280911564091e-15</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1074263624041885</v>
+        <v>15.23675392729005</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.9728</v>
+        <v>5.0046</v>
       </c>
       <c r="B117" t="n">
-        <v>9.586926064159191e-11</v>
+        <v>1.753151942574395e-10</v>
       </c>
       <c r="C117" t="n">
-        <v>1.694481347098931e-11</v>
+        <v>8.169467775107602e-11</v>
       </c>
       <c r="D117" t="n">
-        <v>3.617953343403604e-11</v>
+        <v>6.705178582686193e-12</v>
       </c>
       <c r="E117" t="n">
-        <v>6.49427802954723e-11</v>
+        <v>1.102496492020222e-11</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3880607282809834</v>
+        <v>81.4679826031916</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9956520725502259</v>
+        <v>4.136602698094083e-16</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07761214565619667</v>
+        <v>16.29359652063832</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9746</v>
+        <v>5.01</v>
       </c>
       <c r="B118" t="n">
-        <v>9.560872699436027e-11</v>
+        <v>1.92345321420095e-10</v>
       </c>
       <c r="C118" t="n">
-        <v>1.523355728901879e-11</v>
+        <v>7.653299292468857e-11</v>
       </c>
       <c r="D118" t="n">
-        <v>3.618619390351965e-11</v>
+        <v>9.432234060327955e-12</v>
       </c>
       <c r="E118" t="n">
-        <v>6.580542588753906e-11</v>
+        <v>1.533122410962362e-11</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3333043451240691</v>
+        <v>60.6638813062943</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9969693912005878</v>
+        <v>8.861647740482678e-12</v>
       </c>
       <c r="H118" t="n">
-        <v>0.06666086902481383</v>
+        <v>12.13277626125886</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.9847</v>
+        <v>5.0148</v>
       </c>
       <c r="B119" t="n">
-        <v>8.089790500677396e-11</v>
+        <v>1.990679977212598e-10</v>
       </c>
       <c r="C119" t="n">
-        <v>1.826727645196475e-11</v>
+        <v>4.455667556497524e-11</v>
       </c>
       <c r="D119" t="n">
-        <v>3.062385658269297e-11</v>
+        <v>8.808845398932188e-12</v>
       </c>
       <c r="E119" t="n">
-        <v>5.733675611338528e-11</v>
+        <v>1.439810238243033e-11</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4552704549197745</v>
+        <v>32.69928701012093</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9936697046221294</v>
+        <v>4.31788325829697e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>0.09105409098395489</v>
+        <v>6.539857402024185</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.9901</v>
+        <v>5.0177</v>
       </c>
       <c r="B120" t="n">
-        <v>7.307101163307059e-11</v>
+        <v>1.78309194256936e-10</v>
       </c>
       <c r="C120" t="n">
-        <v>1.823806844808881e-11</v>
+        <v>6.717420133820593e-11</v>
       </c>
       <c r="D120" t="n">
-        <v>2.785574977949004e-11</v>
+        <v>8.611162432992657e-12</v>
       </c>
       <c r="E120" t="n">
-        <v>5.268033681357757e-11</v>
+        <v>1.408405730597754e-11</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5277436807814962</v>
+        <v>51.86443006550245</v>
       </c>
       <c r="G120" t="n">
-        <v>0.9910721747962493</v>
+        <v>5.751430430776106e-10</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1055487361562993</v>
+        <v>10.37288601310049</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.9947</v>
+        <v>5.0179</v>
       </c>
       <c r="B121" t="n">
-        <v>6.400723125162779e-11</v>
+        <v>1.911185129490854e-10</v>
       </c>
       <c r="C121" t="n">
-        <v>1.344980920837271e-11</v>
+        <v>5.496097205366769e-11</v>
       </c>
       <c r="D121" t="n">
-        <v>2.456224000643534e-11</v>
+        <v>8.856899571476006e-12</v>
       </c>
       <c r="E121" t="n">
-        <v>4.581510155075051e-11</v>
+        <v>1.417032410656004e-11</v>
       </c>
       <c r="F121" t="n">
-        <v>0.49513006085235</v>
+        <v>38.47038532938154</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9923005253233131</v>
+        <v>3.035136909861877e-07</v>
       </c>
       <c r="H121" t="n">
-        <v>0.09902601217047</v>
+        <v>7.694077065876309</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>5.0046</v>
+        <v>5.0198</v>
       </c>
       <c r="B122" t="n">
-        <v>5.284647996286777e-11</v>
+        <v>1.862848854618798e-10</v>
       </c>
       <c r="C122" t="n">
-        <v>1.024229976479096e-11</v>
+        <v>6.370873658105064e-11</v>
       </c>
       <c r="D122" t="n">
-        <v>2.010522558854581e-11</v>
+        <v>1.108561463744211e-11</v>
       </c>
       <c r="E122" t="n">
-        <v>3.662328311675691e-11</v>
+        <v>1.733573270356675e-11</v>
       </c>
       <c r="F122" t="n">
-        <v>0.462974921424738</v>
+        <v>49.24890508787778</v>
       </c>
       <c r="G122" t="n">
-        <v>0.99341635056091</v>
+        <v>1.973907350349619e-09</v>
       </c>
       <c r="H122" t="n">
-        <v>0.09259498428494758</v>
+        <v>9.849781017575555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.01</v>
+        <v>5.0248</v>
       </c>
       <c r="B123" t="n">
-        <v>4.736820312735957e-11</v>
+        <v>1.587817636113278e-10</v>
       </c>
       <c r="C123" t="n">
-        <v>1.369561342360582e-11</v>
+        <v>4.887424344624363e-12</v>
       </c>
       <c r="D123" t="n">
-        <v>1.822387803537198e-11</v>
+        <v>1.663436273920288e-11</v>
       </c>
       <c r="E123" t="n">
-        <v>3.603931293231092e-11</v>
+        <v>2.701359024736858e-11</v>
       </c>
       <c r="F123" t="n">
-        <v>0.602611766529173</v>
+        <v>22.81689500765883</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9878833496337833</v>
+        <v>0.0003658857886143776</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1205223533058346</v>
+        <v>4.563379001531766</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.0148</v>
+        <v>5.0278</v>
       </c>
       <c r="B124" t="n">
-        <v>5.193710521646634e-11</v>
+        <v>1.839238593808213e-10</v>
       </c>
       <c r="C124" t="n">
-        <v>7.812974072360992e-12</v>
+        <v>3.126539250111415e-12</v>
       </c>
       <c r="D124" t="n">
-        <v>2.011143794386238e-11</v>
+        <v>1.89613223149585e-11</v>
       </c>
       <c r="E124" t="n">
-        <v>3.619156707292786e-11</v>
+        <v>2.818883631528156e-11</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4946046029390041</v>
+        <v>7.16948873486178</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9923195186418371</v>
+        <v>0.2083373116172974</v>
       </c>
       <c r="H124" t="n">
-        <v>0.09892092058780082</v>
+        <v>1.433897746972356</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.0177</v>
+        <v>5.0301</v>
       </c>
       <c r="B125" t="n">
-        <v>5.205475490880216e-11</v>
+        <v>2.150068789558915e-10</v>
       </c>
       <c r="C125" t="n">
-        <v>2.684972523838908e-12</v>
+        <v>9.164365651552455e-11</v>
       </c>
       <c r="D125" t="n">
-        <v>1.985453878183236e-11</v>
+        <v>1.983474617714941e-11</v>
       </c>
       <c r="E125" t="n">
-        <v>3.396788380895348e-11</v>
+        <v>3.191464237868001e-11</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2313052608328844</v>
+        <v>12.19431388199861</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9987394257030248</v>
+        <v>0.03222008839842514</v>
       </c>
       <c r="H125" t="n">
-        <v>0.04626105216657687</v>
+        <v>2.438862776399722</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.0179</v>
+        <v>5.0328</v>
       </c>
       <c r="B126" t="n">
-        <v>4.762498690909881e-11</v>
+        <v>1.521866349117012e-10</v>
       </c>
       <c r="C126" t="n">
-        <v>1.011190240275102e-11</v>
+        <v>3.054164161679145e-11</v>
       </c>
       <c r="D126" t="n">
-        <v>1.82224635320381e-11</v>
+        <v>1.756892008647927e-11</v>
       </c>
       <c r="E126" t="n">
-        <v>3.3527720529411e-11</v>
+        <v>2.751513770088621e-11</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5317122582413636</v>
+        <v>17.85147505418413</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9909160492079989</v>
+        <v>0.003138424664719647</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1063424516482727</v>
+        <v>3.570295010836826</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.0198</v>
+        <v>5.0359</v>
       </c>
       <c r="B127" t="n">
-        <v>5.961566118399823e-11</v>
+        <v>1.817759296256707e-10</v>
       </c>
       <c r="C127" t="n">
-        <v>6.449839381275337e-12</v>
+        <v>4.156700212760526e-11</v>
       </c>
       <c r="D127" t="n">
-        <v>2.259427545498665e-11</v>
+        <v>1.998672030611984e-11</v>
       </c>
       <c r="E127" t="n">
-        <v>3.961499351176774e-11</v>
+        <v>3.047405998320709e-11</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2557258567783469</v>
+        <v>8.670301982286452</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9983938611930883</v>
+        <v>0.1229596552797917</v>
       </c>
       <c r="H127" t="n">
-        <v>0.05114517135566939</v>
+        <v>1.73406039645729</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.0248</v>
+        <v>5.0387</v>
       </c>
       <c r="B128" t="n">
-        <v>7.35112307332085e-11</v>
+        <v>1.662939341798854e-10</v>
       </c>
       <c r="C128" t="n">
-        <v>3.992674651549027e-12</v>
+        <v>1.3266474794193e-11</v>
       </c>
       <c r="D128" t="n">
-        <v>2.72643723456213e-11</v>
+        <v>1.946897468335556e-11</v>
       </c>
       <c r="E128" t="n">
-        <v>4.513401560055466e-11</v>
+        <v>2.997382487676977e-11</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06379230266201207</v>
+        <v>22.97385192738955</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9999465577149721</v>
+        <v>0.0003414736080405868</v>
       </c>
       <c r="H128" t="n">
-        <v>0.01275846053240241</v>
+        <v>4.59477038547791</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0278</v>
+        <v>5.042</v>
       </c>
       <c r="B129" t="n">
-        <v>7.967617456625652e-11</v>
+        <v>1.580942189497884e-10</v>
       </c>
       <c r="C129" t="n">
-        <v>4.413625491706199e-12</v>
+        <v>3.994562237586369e-11</v>
       </c>
       <c r="D129" t="n">
-        <v>3.010437020001141e-11</v>
+        <v>1.903624839708768e-11</v>
       </c>
       <c r="E129" t="n">
-        <v>5.078058278091343e-11</v>
+        <v>2.929016476778902e-11</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2104929504290664</v>
+        <v>18.1370725644566</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9989967623430867</v>
+        <v>0.002779430700491691</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04209859008581328</v>
+        <v>3.62741451289132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.0301</v>
+        <v>5.0448</v>
       </c>
       <c r="B130" t="n">
-        <v>8.285870511218431e-11</v>
+        <v>1.724821701024286e-10</v>
       </c>
       <c r="C130" t="n">
-        <v>1.611725854695463e-11</v>
+        <v>3.445951434252085e-11</v>
       </c>
       <c r="D130" t="n">
-        <v>3.058158118363839e-11</v>
+        <v>1.898982381411601e-11</v>
       </c>
       <c r="E130" t="n">
-        <v>5.431671593651273e-11</v>
+        <v>2.978805774784032e-11</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2145334780789711</v>
+        <v>25.19252314773987</v>
       </c>
       <c r="G130" t="n">
-        <v>0.998949429560019</v>
+        <v>0.0001278989605844023</v>
       </c>
       <c r="H130" t="n">
-        <v>0.04290669561579423</v>
+        <v>5.038504629547974</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0328</v>
+        <v>5.05</v>
       </c>
       <c r="B131" t="n">
-        <v>9.108519033834962e-11</v>
+        <v>1.798710406890132e-10</v>
       </c>
       <c r="C131" t="n">
-        <v>6.308636151931963e-12</v>
+        <v>7.535697731871628e-11</v>
       </c>
       <c r="D131" t="n">
-        <v>3.446675252414862e-11</v>
+        <v>1.963191233838174e-11</v>
       </c>
       <c r="E131" t="n">
-        <v>5.939381613879249e-11</v>
+        <v>3.079122424293691e-11</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2231185968819959</v>
+        <v>9.332739706485761</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9988446737244285</v>
+        <v>0.09650592814563883</v>
       </c>
       <c r="H131" t="n">
-        <v>0.04462371937639918</v>
+        <v>1.866547941297152</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.0359</v>
+        <v>5.0548</v>
       </c>
       <c r="B132" t="n">
-        <v>9.936504911220151e-11</v>
+        <v>2.249970071531381e-10</v>
       </c>
       <c r="C132" t="n">
-        <v>1.918214701057502e-11</v>
+        <v>-1.919935491906774e-11</v>
       </c>
       <c r="D132" t="n">
-        <v>3.639701669866909e-11</v>
+        <v>1.763167499764164e-11</v>
       </c>
       <c r="E132" t="n">
-        <v>6.576141192414176e-11</v>
+        <v>2.615030217472331e-11</v>
       </c>
       <c r="F132" t="n">
-        <v>0.09520016320482889</v>
+        <v>3.08047503286386</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9998562197066687</v>
+        <v>0.5444495855773556</v>
       </c>
       <c r="H132" t="n">
-        <v>0.01904003264096578</v>
+        <v>0.7701187582159651</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0387</v>
+        <v>5.0649</v>
       </c>
       <c r="B133" t="n">
-        <v>1.089160165118937e-10</v>
+        <v>2.104464408232646e-10</v>
       </c>
       <c r="C133" t="n">
-        <v>9.450061138239788e-12</v>
+        <v>1.745380591026775e-11</v>
       </c>
       <c r="D133" t="n">
-        <v>4.063448350752767e-11</v>
+        <v>1.296453175210321e-11</v>
       </c>
       <c r="E133" t="n">
-        <v>6.96262503024748e-11</v>
+        <v>1.991189692749928e-11</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1403363661068015</v>
+        <v>16.31770145321466</v>
       </c>
       <c r="G133" t="n">
-        <v>0.999626701593175</v>
+        <v>0.005993198209239371</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0280672732213603</v>
+        <v>3.263540290642933</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.042</v>
+        <v>5.0699</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07900408488008e-10</v>
+        <v>2.561947819120643e-10</v>
       </c>
       <c r="C134" t="n">
-        <v>1.820422299927914e-11</v>
+        <v>4.684317532931833e-11</v>
       </c>
       <c r="D134" t="n">
-        <v>3.999269318847812e-11</v>
+        <v>1.404418995318033e-11</v>
       </c>
       <c r="E134" t="n">
-        <v>7.186082953443565e-11</v>
+        <v>2.224789814856571e-11</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1761096291338483</v>
+        <v>19.516572310381</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9993497688805076</v>
+        <v>0.001539485559955423</v>
       </c>
       <c r="H134" t="n">
-        <v>0.03522192582676966</v>
+        <v>3.9033144620762</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.0448</v>
+        <v>5.0745</v>
       </c>
       <c r="B135" t="n">
-        <v>9.48250181197079e-11</v>
+        <v>2.239813426151211e-10</v>
       </c>
       <c r="C135" t="n">
-        <v>8.776827898293089e-12</v>
+        <v>9.131446394091481e-12</v>
       </c>
       <c r="D135" t="n">
-        <v>3.505785783094153e-11</v>
+        <v>1.005258903514019e-11</v>
       </c>
       <c r="E135" t="n">
-        <v>5.877532665977162e-11</v>
+        <v>1.555205965550746e-11</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1192644830590597</v>
+        <v>8.98956481640325</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9997495833408615</v>
+        <v>0.1094811069124439</v>
       </c>
       <c r="H135" t="n">
-        <v>0.02385289661181193</v>
+        <v>1.79791296328065</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.05</v>
+        <v>5.0842</v>
       </c>
       <c r="B136" t="n">
-        <v>8.57214054266726e-11</v>
+        <v>2.116854948863929e-10</v>
       </c>
       <c r="C136" t="n">
-        <v>1.752563970067978e-11</v>
+        <v>4.819686472543672e-11</v>
       </c>
       <c r="D136" t="n">
-        <v>3.173854150187211e-11</v>
+        <v>9.859851019256899e-12</v>
       </c>
       <c r="E136" t="n">
-        <v>5.897233148110886e-11</v>
+        <v>1.561545949912404e-11</v>
       </c>
       <c r="F136" t="n">
-        <v>0.193777761743568</v>
+        <v>25.89788949078234</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9991793733455019</v>
+        <v>9.339828469269591e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03875555234871361</v>
+        <v>5.179577898156468</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.0548</v>
+        <v>5.09</v>
       </c>
       <c r="B137" t="n">
-        <v>6.57973326688778e-11</v>
+        <v>2.2844416989505e-10</v>
       </c>
       <c r="C137" t="n">
-        <v>6.559658587660492e-12</v>
+        <v>6.898843101665858e-11</v>
       </c>
       <c r="D137" t="n">
-        <v>2.46075373104852e-11</v>
+        <v>1.100923075939881e-11</v>
       </c>
       <c r="E137" t="n">
-        <v>4.265170400387797e-11</v>
+        <v>1.777961654607047e-11</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1654384521570602</v>
+        <v>28.04903843284344</v>
       </c>
       <c r="G137" t="n">
-        <v>0.99944172618079</v>
+        <v>3.560408337225111e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>0.03308769043141204</v>
+        <v>5.609807686568688</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.0649</v>
+        <v>5.0937</v>
       </c>
       <c r="B138" t="n">
-        <v>4.544294361453323e-11</v>
+        <v>2.170193180044633e-10</v>
       </c>
       <c r="C138" t="n">
-        <v>9.789559692031159e-12</v>
+        <v>4.584056338622726e-11</v>
       </c>
       <c r="D138" t="n">
-        <v>1.712825035803106e-11</v>
+        <v>1.977118866876182e-11</v>
       </c>
       <c r="E138" t="n">
-        <v>3.160837135993375e-11</v>
+        <v>3.002682552135345e-11</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4777145761369499</v>
+        <v>3.047356999141598</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9929165827511123</v>
+        <v>0.6926847694122095</v>
       </c>
       <c r="H138" t="n">
-        <v>0.09554291522738997</v>
+        <v>0.6094713998283197</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.0699</v>
+        <v>5.0968</v>
       </c>
       <c r="B139" t="n">
-        <v>4.275575222651347e-11</v>
+        <v>1.792642259111191e-10</v>
       </c>
       <c r="C139" t="n">
-        <v>2.971694760864864e-12</v>
+        <v>4.321757866567093e-12</v>
       </c>
       <c r="D139" t="n">
-        <v>1.645176479568336e-11</v>
+        <v>2.065729993390137e-11</v>
       </c>
       <c r="E139" t="n">
-        <v>2.905813483564573e-11</v>
+        <v>3.070771387220657e-11</v>
       </c>
       <c r="F139" t="n">
-        <v>0.313627210570667</v>
+        <v>4.584747478523822</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9973789091680126</v>
+        <v>0.4686252042516721</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0627254421141334</v>
+        <v>0.9169494957047644</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.0745</v>
+        <v>5.0989</v>
       </c>
       <c r="B140" t="n">
-        <v>3.297921607229743e-11</v>
+        <v>1.638878577742595e-10</v>
       </c>
       <c r="C140" t="n">
-        <v>9.743818343925676e-13</v>
+        <v>2.729353519307284e-11</v>
       </c>
       <c r="D140" t="n">
-        <v>1.245716292605549e-11</v>
+        <v>2.362974838670728e-11</v>
       </c>
       <c r="E140" t="n">
-        <v>2.008528756769393e-11</v>
+        <v>3.58161581119516e-11</v>
       </c>
       <c r="F140" t="n">
-        <v>0.321926929703086</v>
+        <v>2.571840537545503</v>
       </c>
       <c r="G140" t="n">
-        <v>0.9972102401511469</v>
+        <v>0.765638999879494</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0643853859406172</v>
+        <v>0.5143681075091007</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.0842</v>
+        <v>5.1</v>
       </c>
       <c r="B141" t="n">
-        <v>2.702613722443209e-11</v>
+        <v>1.406026154818207e-10</v>
       </c>
       <c r="C141" t="n">
-        <v>5.425108586312553e-12</v>
+        <v>-2.339915740155439e-11</v>
       </c>
       <c r="D141" t="n">
-        <v>1.038096404921965e-11</v>
+        <v>2.437381754626569e-11</v>
       </c>
       <c r="E141" t="n">
-        <v>1.936882815730608e-11</v>
+        <v>4.173237265851907e-11</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4444752520563731</v>
+        <v>4.043077213776694</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9940156176845061</v>
+        <v>0.5432307165002125</v>
       </c>
       <c r="H141" t="n">
-        <v>0.08889505041127461</v>
+        <v>0.8086154427553389</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.09</v>
+        <v>5.1004</v>
       </c>
       <c r="B142" t="n">
-        <v>2.727217986881661e-11</v>
+        <v>1.653554585369329e-10</v>
       </c>
       <c r="C142" t="n">
-        <v>8.580130579474785e-12</v>
+        <v>-1.973731135419719e-11</v>
       </c>
       <c r="D142" t="n">
-        <v>9.84105506976604e-12</v>
+        <v>2.589181920140979e-11</v>
       </c>
       <c r="E142" t="n">
-        <v>1.823805806847187e-11</v>
+        <v>3.74357639106797e-11</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2119008293531192</v>
+        <v>2.46944765262079</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9989804120729749</v>
+        <v>0.7810891213121804</v>
       </c>
       <c r="H142" t="n">
-        <v>0.04238016587062385</v>
+        <v>0.4938895305241581</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.0937</v>
+        <v>5.1007</v>
       </c>
       <c r="B143" t="n">
-        <v>5.453732586183584e-11</v>
+        <v>1.729357679679282e-10</v>
       </c>
       <c r="C143" t="n">
-        <v>2.623751845427035e-11</v>
+        <v>2.46381217930697e-11</v>
       </c>
       <c r="D143" t="n">
-        <v>1.901093211375226e-11</v>
+        <v>2.717080148566616e-11</v>
       </c>
       <c r="E143" t="n">
-        <v>3.601728060886013e-11</v>
+        <v>3.878406868302728e-11</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04979092805968466</v>
+        <v>0.8004487566127581</v>
       </c>
       <c r="G143" t="n">
-        <v>0.9999710926928829</v>
+        <v>0.9770047118138834</v>
       </c>
       <c r="H143" t="n">
-        <v>0.009958185611936931</v>
+        <v>0.1600897513225516</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.0968</v>
+        <v>5.1029</v>
       </c>
       <c r="B144" t="n">
-        <v>1.023471118538205e-10</v>
+        <v>1.622747784306074e-10</v>
       </c>
       <c r="C144" t="n">
-        <v>2.949418967395596e-11</v>
+        <v>-3.575929706979285e-11</v>
       </c>
       <c r="D144" t="n">
-        <v>3.69081891510297e-11</v>
+        <v>2.838408244725986e-11</v>
       </c>
       <c r="E144" t="n">
-        <v>6.8261024992977e-11</v>
+        <v>4.242095655424638e-11</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1096977719807761</v>
+        <v>1.945258611744488</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9997961276453844</v>
+        <v>0.8566665385526687</v>
       </c>
       <c r="H144" t="n">
-        <v>0.02193955439615522</v>
+        <v>0.3890517223488976</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.0989</v>
+        <v>5.1049</v>
       </c>
       <c r="B145" t="n">
-        <v>1.155236486881623e-10</v>
+        <v>1.481733977731024e-10</v>
       </c>
       <c r="C145" t="n">
-        <v>1.772640646200812e-11</v>
+        <v>4.518596097895703e-11</v>
       </c>
       <c r="D145" t="n">
-        <v>4.207834077172612e-11</v>
+        <v>2.684393899006712e-11</v>
       </c>
       <c r="E145" t="n">
-        <v>7.23061274931827e-11</v>
+        <v>4.368773111562678e-11</v>
       </c>
       <c r="F145" t="n">
-        <v>0.06225433201354643</v>
+        <v>7.311713405078569</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9999496932415174</v>
+        <v>0.1984706542971503</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01245086640270929</v>
+        <v>1.462342681015714</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.1</v>
+        <v>5.1069</v>
       </c>
       <c r="B146" t="n">
-        <v>1.146262602625745e-10</v>
+        <v>1.382195867877415e-10</v>
       </c>
       <c r="C146" t="n">
-        <v>1.484113611221022e-11</v>
+        <v>-4.414207335672071e-11</v>
       </c>
       <c r="D146" t="n">
-        <v>4.199098435430119e-11</v>
+        <v>2.765601694906923e-11</v>
       </c>
       <c r="E146" t="n">
-        <v>7.30669242388756e-11</v>
+        <v>4.147894013715878e-11</v>
       </c>
       <c r="F146" t="n">
-        <v>0.01773957586241485</v>
+        <v>7.386174165150287</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9999977845795633</v>
+        <v>0.1934673514140457</v>
       </c>
       <c r="H146" t="n">
-        <v>0.00354791517248297</v>
+        <v>1.477234833030057</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.1004</v>
+        <v>5.1088</v>
       </c>
       <c r="B147" t="n">
-        <v>1.166244939732563e-10</v>
+        <v>1.755142025658582e-10</v>
       </c>
       <c r="C147" t="n">
-        <v>2.533146732197132e-11</v>
+        <v>-3.342450717396544e-11</v>
       </c>
       <c r="D147" t="n">
-        <v>4.226732014200282e-11</v>
+        <v>2.891134146759217e-11</v>
       </c>
       <c r="E147" t="n">
-        <v>7.564703808568592e-11</v>
+        <v>4.188573996308652e-11</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0571849550284077</v>
+        <v>5.772301821739233</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9999592439916222</v>
+        <v>0.3290092046974682</v>
       </c>
       <c r="H147" t="n">
-        <v>0.01143699100568154</v>
+        <v>1.154460364347847</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.1007</v>
+        <v>5.11</v>
       </c>
       <c r="B148" t="n">
-        <v>1.111276530278455e-10</v>
+        <v>1.618798764411284e-10</v>
       </c>
       <c r="C148" t="n">
-        <v>2.981068457215056e-11</v>
+        <v>1.921203875864103e-11</v>
       </c>
       <c r="D148" t="n">
-        <v>4.021148822658491e-11</v>
+        <v>2.896483462273204e-11</v>
       </c>
       <c r="E148" t="n">
-        <v>7.295814310678786e-11</v>
+        <v>4.519417702712445e-11</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1133687282989963</v>
+        <v>1.591723333280675</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9997789300823121</v>
+        <v>0.9022484231896069</v>
       </c>
       <c r="H148" t="n">
-        <v>0.02267374565979927</v>
+        <v>0.318344666656135</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.1029</v>
+        <v>5.1108</v>
       </c>
       <c r="B149" t="n">
-        <v>1.4003327528059e-10</v>
+        <v>1.589617795994192e-10</v>
       </c>
       <c r="C149" t="n">
-        <v>2.267908172046852e-11</v>
+        <v>5.087928303077209e-11</v>
       </c>
       <c r="D149" t="n">
-        <v>5.180055895792259e-11</v>
+        <v>3.000366490028951e-11</v>
       </c>
       <c r="E149" t="n">
-        <v>9.489030131252199e-11</v>
+        <v>4.490126511488756e-11</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1260321854510471</v>
+        <v>4.232673370413404</v>
       </c>
       <c r="G149" t="n">
-        <v>0.9997132235654738</v>
+        <v>0.5164259807021072</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02520643709020943</v>
+        <v>0.8465346740826808</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.1049</v>
+        <v>5.1138</v>
       </c>
       <c r="B150" t="n">
-        <v>1.451963087225673e-10</v>
+        <v>1.251418027948424e-10</v>
       </c>
       <c r="C150" t="n">
-        <v>2.794005154876277e-11</v>
+        <v>4.616307482167657e-11</v>
       </c>
       <c r="D150" t="n">
-        <v>5.282714459579944e-11</v>
+        <v>2.340377037132642e-11</v>
       </c>
       <c r="E150" t="n">
-        <v>9.51117710785819e-11</v>
+        <v>3.782930657168671e-11</v>
       </c>
       <c r="F150" t="n">
-        <v>0.04093651008637636</v>
+        <v>7.181946511145618</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9999822261910806</v>
+        <v>0.207456586826489</v>
       </c>
       <c r="H150" t="n">
-        <v>0.008187302017275272</v>
+        <v>1.436389302229124</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.1069</v>
+        <v>5.1188</v>
       </c>
       <c r="B151" t="n">
-        <v>1.472077195405435e-10</v>
+        <v>1.585921727802473e-10</v>
       </c>
       <c r="C151" t="n">
-        <v>3.416396106985714e-11</v>
+        <v>-6.781242658403207e-11</v>
       </c>
       <c r="D151" t="n">
-        <v>5.300134558528495e-11</v>
+        <v>1.992100312226366e-11</v>
       </c>
       <c r="E151" t="n">
-        <v>9.379161374255151e-11</v>
+        <v>2.656304309004327e-11</v>
       </c>
       <c r="F151" t="n">
-        <v>0.03198939552973461</v>
+        <v>34.46279208987491</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9999903749124709</v>
+        <v>1.925639374229285e-06</v>
       </c>
       <c r="H151" t="n">
-        <v>0.006397879105946922</v>
+        <v>6.892558417974982</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1088</v>
+        <v>5.1238</v>
       </c>
       <c r="B152" t="n">
-        <v>1.543632901968912e-10</v>
+        <v>2.758333528210642e-10</v>
       </c>
       <c r="C152" t="n">
-        <v>3.201360296779871e-11</v>
+        <v>-1.58030820670692e-11</v>
       </c>
       <c r="D152" t="n">
-        <v>5.594539596691969e-11</v>
+        <v>2.26104244115982e-11</v>
       </c>
       <c r="E152" t="n">
-        <v>1.002222332760796e-10</v>
+        <v>3.452190965360011e-11</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0385192712432983</v>
+        <v>4.588726450905858</v>
       </c>
       <c r="G152" t="n">
-        <v>0.999984721768869</v>
+        <v>0.4681006164348386</v>
       </c>
       <c r="H152" t="n">
-        <v>0.00770385424865966</v>
+        <v>0.9177452901811716</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.11</v>
+        <v>5.1285</v>
       </c>
       <c r="B153" t="n">
-        <v>1.472266779746313e-10</v>
+        <v>3.068688408483407e-10</v>
       </c>
       <c r="C153" t="n">
-        <v>4.782048574781649e-11</v>
+        <v>3.188284387648101e-11</v>
       </c>
       <c r="D153" t="n">
-        <v>5.230727317657823e-11</v>
+        <v>1.688485733490021e-11</v>
       </c>
       <c r="E153" t="n">
-        <v>9.750448296658452e-11</v>
+        <v>2.718658780462167e-11</v>
       </c>
       <c r="F153" t="n">
-        <v>0.02012951614926037</v>
+        <v>2.518803719898885</v>
       </c>
       <c r="G153" t="n">
-        <v>0.9999969639358176</v>
+        <v>0.7736605692102732</v>
       </c>
       <c r="H153" t="n">
-        <v>0.004025903229852074</v>
+        <v>0.5037607439797769</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.1108</v>
+        <v>5.1299</v>
       </c>
       <c r="B154" t="n">
-        <v>1.370597944434356e-10</v>
+        <v>2.915026709953162e-10</v>
       </c>
       <c r="C154" t="n">
-        <v>2.002873851293692e-11</v>
+        <v>-5.759948320290987e-12</v>
       </c>
       <c r="D154" t="n">
-        <v>5.08116575909533e-11</v>
+        <v>1.958462336616469e-11</v>
       </c>
       <c r="E154" t="n">
-        <v>9.048872391968618e-11</v>
+        <v>3.005484798415854e-11</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1682863406511346</v>
+        <v>3.375708613738539</v>
       </c>
       <c r="G154" t="n">
-        <v>0.9994179786495074</v>
+        <v>0.6422721550425925</v>
       </c>
       <c r="H154" t="n">
-        <v>0.03365726813022692</v>
+        <v>0.6751417227477077</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.1138</v>
+        <v>5.1338</v>
       </c>
       <c r="B155" t="n">
-        <v>1.387335699871539e-10</v>
+        <v>2.795651184902676e-10</v>
       </c>
       <c r="C155" t="n">
-        <v>3.200226613040084e-11</v>
+        <v>8.59945003118925e-11</v>
       </c>
       <c r="D155" t="n">
-        <v>5.062049226185129e-11</v>
+        <v>1.52018269680269e-11</v>
       </c>
       <c r="E155" t="n">
-        <v>9.521738145848623e-11</v>
+        <v>2.426306740709855e-11</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1145979871718693</v>
+        <v>20.66111809950977</v>
       </c>
       <c r="G155" t="n">
-        <v>0.9997729879217017</v>
+        <v>0.0009385774978156571</v>
       </c>
       <c r="H155" t="n">
-        <v>0.02291959743437386</v>
+        <v>4.132223619901955</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.1188</v>
+        <v>5.1389</v>
       </c>
       <c r="B156" t="n">
-        <v>1.213635041501973e-10</v>
+        <v>2.961957974131923e-10</v>
       </c>
       <c r="C156" t="n">
-        <v>1.494190148187234e-11</v>
+        <v>3.198278767023986e-11</v>
       </c>
       <c r="D156" t="n">
-        <v>4.434336505717184e-11</v>
+        <v>1.808425989691681e-11</v>
       </c>
       <c r="E156" t="n">
-        <v>7.430655090904224e-11</v>
+        <v>2.736721413451397e-11</v>
       </c>
       <c r="F156" t="n">
-        <v>0.05586818404035006</v>
+        <v>4.073049157397121</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9999615317489577</v>
+        <v>0.5389473671527705</v>
       </c>
       <c r="H156" t="n">
-        <v>0.01117363680807001</v>
+        <v>0.8146098314794242</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1238</v>
+        <v>5.1417</v>
       </c>
       <c r="B157" t="n">
-        <v>9.780034470488592e-11</v>
+        <v>3.016438870118303e-10</v>
       </c>
       <c r="C157" t="n">
-        <v>2.053782069426216e-11</v>
+        <v>1.134160731934164e-11</v>
       </c>
       <c r="D157" t="n">
-        <v>3.568244607169087e-11</v>
+        <v>1.718981796923582e-11</v>
       </c>
       <c r="E157" t="n">
-        <v>6.291131601502311e-11</v>
+        <v>2.604090817408294e-11</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1146981758316778</v>
+        <v>10.62950647510845</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9997724995369911</v>
+        <v>0.05924125563931579</v>
       </c>
       <c r="H157" t="n">
-        <v>0.02293963516633556</v>
+        <v>2.125901295021691</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.1285</v>
+        <v>5.1447</v>
       </c>
       <c r="B158" t="n">
-        <v>7.040943070127302e-11</v>
+        <v>2.93137924596616e-10</v>
       </c>
       <c r="C158" t="n">
-        <v>1.087246977267277e-11</v>
+        <v>4.24691631779487e-11</v>
       </c>
       <c r="D158" t="n">
-        <v>2.633350315879136e-11</v>
+        <v>1.718250391166011e-11</v>
       </c>
       <c r="E158" t="n">
-        <v>4.775676602899579e-11</v>
+        <v>2.673266684771439e-11</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2147336624426327</v>
+        <v>22.72825648558461</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9989470518529062</v>
+        <v>0.0003804254382478601</v>
       </c>
       <c r="H158" t="n">
-        <v>0.04294673248852655</v>
+        <v>4.545651297116922</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.1299</v>
+        <v>5.148</v>
       </c>
       <c r="B159" t="n">
-        <v>7.887846217429781e-11</v>
+        <v>2.429205217372474e-10</v>
       </c>
       <c r="C159" t="n">
-        <v>5.565797719116377e-12</v>
+        <v>1.678791050869181e-10</v>
       </c>
       <c r="D159" t="n">
-        <v>2.912593947963207e-11</v>
+        <v>1.482863154563171e-11</v>
       </c>
       <c r="E159" t="n">
-        <v>4.886215576726092e-11</v>
+        <v>2.359198732738649e-11</v>
       </c>
       <c r="F159" t="n">
-        <v>0.09397059462242223</v>
+        <v>58.08671480955707</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9998607564111779</v>
+        <v>3.018527519562083e-11</v>
       </c>
       <c r="H159" t="n">
-        <v>0.01879411892448445</v>
+        <v>11.61734296191141</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.1338</v>
+        <v>5.15</v>
       </c>
       <c r="B160" t="n">
-        <v>6.074368726114565e-11</v>
+        <v>3.566305811307097e-10</v>
       </c>
       <c r="C160" t="n">
-        <v>1.022496902005091e-11</v>
+        <v>9.473711976595019e-12</v>
       </c>
       <c r="D160" t="n">
-        <v>2.220062867804372e-11</v>
+        <v>2.106279824257613e-11</v>
       </c>
       <c r="E160" t="n">
-        <v>3.984735209204017e-11</v>
+        <v>3.23006908678018e-11</v>
       </c>
       <c r="F160" t="n">
-        <v>0.04770797510020942</v>
+        <v>12.96451837314035</v>
       </c>
       <c r="G160" t="n">
-        <v>0.9999740024681419</v>
+        <v>0.02371354782943546</v>
       </c>
       <c r="H160" t="n">
-        <v>0.009541595020041883</v>
+        <v>2.592903674628071</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.1389</v>
+        <v>5.151</v>
       </c>
       <c r="B161" t="n">
-        <v>7.106411618212787e-11</v>
+        <v>3.143984784730943e-10</v>
       </c>
       <c r="C161" t="n">
-        <v>8.576766202949692e-12</v>
+        <v>2.733073671098387e-11</v>
       </c>
       <c r="D161" t="n">
-        <v>2.62785795213872e-11</v>
+        <v>1.668824455366655e-11</v>
       </c>
       <c r="E161" t="n">
-        <v>4.483973004042389e-11</v>
+        <v>2.550490345612358e-11</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1326427623935538</v>
+        <v>10.23133181414279</v>
       </c>
       <c r="G161" t="n">
-        <v>0.9996748920541724</v>
+        <v>0.06893971275083059</v>
       </c>
       <c r="H161" t="n">
-        <v>0.02652855247871076</v>
+        <v>2.046266362828558</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.1417</v>
+        <v>5.157</v>
       </c>
       <c r="B162" t="n">
-        <v>6.444603385357258e-11</v>
+        <v>3.536815530465476e-10</v>
       </c>
       <c r="C162" t="n">
-        <v>1.624533344789203e-11</v>
+        <v>1.044951457297805e-11</v>
       </c>
       <c r="D162" t="n">
-        <v>2.317115464218368e-11</v>
+        <v>1.585596418180631e-11</v>
       </c>
       <c r="E162" t="n">
-        <v>4.12754218299867e-11</v>
+        <v>2.402407874519094e-11</v>
       </c>
       <c r="F162" t="n">
-        <v>0.05803685752581055</v>
+        <v>1.932809441932374</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9999577219436429</v>
+        <v>0.858361854118172</v>
       </c>
       <c r="H162" t="n">
-        <v>0.01160737150516211</v>
+        <v>0.3865618883864749</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.1447</v>
+        <v>5.1594</v>
       </c>
       <c r="B163" t="n">
-        <v>6.00033668149099e-11</v>
+        <v>3.630544681131725e-10</v>
       </c>
       <c r="C163" t="n">
-        <v>1.405480075898529e-11</v>
+        <v>-6.128956176421547e-12</v>
       </c>
       <c r="D163" t="n">
-        <v>2.193267941704599e-11</v>
+        <v>1.480512429182017e-11</v>
       </c>
       <c r="E163" t="n">
-        <v>4.06475979979696e-11</v>
+        <v>2.24586377522054e-11</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1394427828008407</v>
+        <v>8.233392179574471</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9996324988914892</v>
+        <v>0.1438333528333502</v>
       </c>
       <c r="H163" t="n">
-        <v>0.02788855656016813</v>
+        <v>1.646678435914894</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.148</v>
+        <v>5.17</v>
       </c>
       <c r="B164" t="n">
-        <v>6.490922235695063e-11</v>
+        <v>4.211796185613335e-10</v>
       </c>
       <c r="C164" t="n">
-        <v>1.559728678140835e-11</v>
+        <v>5.3927840776203e-11</v>
       </c>
       <c r="D164" t="n">
-        <v>2.380143678654772e-11</v>
+        <v>1.603865486871694e-11</v>
       </c>
       <c r="E164" t="n">
-        <v>4.384054962221384e-11</v>
+        <v>2.594611642112502e-11</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1983595699148091</v>
+        <v>5.894891621052027</v>
       </c>
       <c r="G164" t="n">
-        <v>0.99913141470824</v>
+        <v>0.3165811725147342</v>
       </c>
       <c r="H164" t="n">
-        <v>0.03967191398296181</v>
+        <v>1.178978324210405</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.15</v>
+        <v>5.1898</v>
       </c>
       <c r="B165" t="n">
-        <v>6.242885762172663e-11</v>
+        <v>4.27275071772491e-10</v>
       </c>
       <c r="C165" t="n">
-        <v>8.37150933383101e-12</v>
+        <v>6.088861077390671e-11</v>
       </c>
       <c r="D165" t="n">
-        <v>2.270784113275492e-11</v>
+        <v>1.271223090299136e-11</v>
       </c>
       <c r="E165" t="n">
-        <v>3.763571864656524e-11</v>
+        <v>2.070003075881264e-11</v>
       </c>
       <c r="F165" t="n">
-        <v>0.05120350880736437</v>
+        <v>7.9628001753904</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9999690142049702</v>
+        <v>0.1582977344353815</v>
       </c>
       <c r="H165" t="n">
-        <v>0.01024070176147287</v>
+        <v>1.59256003507808</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.151</v>
+        <v>5.21</v>
       </c>
       <c r="B166" t="n">
-        <v>6.181328896762262e-11</v>
+        <v>4.067339478098838e-10</v>
       </c>
       <c r="C166" t="n">
-        <v>1.103091092310755e-11</v>
+        <v>7.062450913085092e-11</v>
       </c>
       <c r="D166" t="n">
-        <v>2.254786597022721e-11</v>
+        <v>1.297382646898364e-11</v>
       </c>
       <c r="E166" t="n">
-        <v>3.889417208743044e-11</v>
+        <v>2.126090370135687e-11</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1183501156743447</v>
+        <v>3.594593841479535</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9997542755370553</v>
+        <v>0.6091251851939145</v>
       </c>
       <c r="H166" t="n">
-        <v>0.02367002313486894</v>
+        <v>0.7189187682959071</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.157</v>
+        <v>5.23</v>
       </c>
       <c r="B167" t="n">
-        <v>5.551657949126583e-11</v>
+        <v>3.657122813997424e-10</v>
       </c>
       <c r="C167" t="n">
-        <v>6.080483652143186e-12</v>
+        <v>9.147401140030229e-11</v>
       </c>
       <c r="D167" t="n">
-        <v>2.046752830663994e-11</v>
+        <v>1.639369485250391e-11</v>
       </c>
       <c r="E167" t="n">
-        <v>3.457702447619466e-11</v>
+        <v>2.610435971028657e-11</v>
       </c>
       <c r="F167" t="n">
-        <v>0.08085834613065047</v>
+        <v>7.907386923412329</v>
       </c>
       <c r="G167" t="n">
-        <v>0.9999039194411784</v>
+        <v>0.161414117992047</v>
       </c>
       <c r="H167" t="n">
-        <v>0.01617166922613009</v>
+        <v>1.581477384682466</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.1594</v>
+        <v>5.2395</v>
       </c>
       <c r="B168" t="n">
-        <v>5.166659863760232e-11</v>
+        <v>3.646267965110286e-10</v>
       </c>
       <c r="C168" t="n">
-        <v>1.179860469278711e-11</v>
+        <v>3.076005485879793e-11</v>
       </c>
       <c r="D168" t="n">
-        <v>1.920950275653334e-11</v>
+        <v>1.549445415657421e-11</v>
       </c>
       <c r="E168" t="n">
-        <v>3.7034219190392e-11</v>
+        <v>2.373223137190724e-11</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2729118898980443</v>
+        <v>14.3625838081825</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9981217233198033</v>
+        <v>0.01346309643994104</v>
       </c>
       <c r="H168" t="n">
-        <v>0.05458237797960885</v>
+        <v>2.872516761636501</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.17</v>
+        <v>5.2431</v>
       </c>
       <c r="B169" t="n">
-        <v>3.137399414918167e-11</v>
+        <v>3.970460193915996e-10</v>
       </c>
       <c r="C169" t="n">
-        <v>1.068445422320175e-11</v>
+        <v>3.122603863758731e-11</v>
       </c>
       <c r="D169" t="n">
-        <v>1.156374048124426e-11</v>
+        <v>2.272183561205914e-11</v>
       </c>
       <c r="E169" t="n">
-        <v>2.35172645573975e-11</v>
+        <v>3.409375618791688e-11</v>
       </c>
       <c r="F169" t="n">
-        <v>0.366223917748451</v>
+        <v>1.98309143500086</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9962090708238528</v>
+        <v>0.8514796802681022</v>
       </c>
       <c r="H169" t="n">
-        <v>0.07324478354969019</v>
+        <v>0.3966182870001719</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.1898</v>
+        <v>5.2501</v>
       </c>
       <c r="B170" t="n">
-        <v>2.674323387014248e-11</v>
+        <v>3.685497711277066e-10</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.036109306520229e-14</v>
+        <v>2.42940100641933e-11</v>
       </c>
       <c r="D170" t="n">
-        <v>1.042339481238281e-11</v>
+        <v>2.856495897696019e-11</v>
       </c>
       <c r="E170" t="n">
-        <v>1.728609901259006e-11</v>
+        <v>4.120270521535042e-11</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4284700870278659</v>
+        <v>7.456509248281121</v>
       </c>
       <c r="G170" t="n">
-        <v>0.994509029098587</v>
+        <v>0.1888417725651492</v>
       </c>
       <c r="H170" t="n">
-        <v>0.08569401740557318</v>
+        <v>1.491301849656224</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.21</v>
+        <v>5.2599</v>
       </c>
       <c r="B171" t="n">
-        <v>2.535448634492237e-11</v>
+        <v>2.283681219882312e-10</v>
       </c>
       <c r="C171" t="n">
-        <v>4.344788635658357e-12</v>
+        <v>1.947009414480087e-10</v>
       </c>
       <c r="D171" t="n">
-        <v>9.911569330966082e-12</v>
+        <v>2.394770587332016e-11</v>
       </c>
       <c r="E171" t="n">
-        <v>1.926851328543511e-11</v>
+        <v>3.754110548701112e-11</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5780539369344122</v>
+        <v>23.45004507977994</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9889859891606128</v>
+        <v>0.0002768345729679083</v>
       </c>
       <c r="H171" t="n">
-        <v>0.1156107873868824</v>
+        <v>4.690009015955988</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.23</v>
+        <v>5.265</v>
       </c>
       <c r="B172" t="n">
-        <v>2.847192732240703e-11</v>
+        <v>3.53052853821928e-10</v>
       </c>
       <c r="C172" t="n">
-        <v>1.559243960449369e-12</v>
+        <v>1.837906662921081e-11</v>
       </c>
       <c r="D172" t="n">
-        <v>1.066961480532678e-11</v>
+        <v>3.991615912883002e-11</v>
       </c>
       <c r="E172" t="n">
-        <v>1.816862900376953e-11</v>
+        <v>5.696582576555944e-11</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2615192925416215</v>
+        <v>7.450838491361942</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9983048245219326</v>
+        <v>0.1892111248098839</v>
       </c>
       <c r="H172" t="n">
-        <v>0.05230385850832429</v>
+        <v>1.490167698272388</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.2395</v>
+        <v>5.27</v>
       </c>
       <c r="B173" t="n">
-        <v>4.255501860571063e-11</v>
+        <v>2.990034240177734e-10</v>
       </c>
       <c r="C173" t="n">
-        <v>4.551871787398777e-12</v>
+        <v>1.014984496785046e-10</v>
       </c>
       <c r="D173" t="n">
-        <v>1.608353592903082e-11</v>
+        <v>4.268654727124964e-11</v>
       </c>
       <c r="E173" t="n">
-        <v>2.846410565209356e-11</v>
+        <v>5.961155805348188e-11</v>
       </c>
       <c r="F173" t="n">
-        <v>0.2185866633819996</v>
+        <v>7.506217846122809</v>
       </c>
       <c r="G173" t="n">
-        <v>0.998900684546551</v>
+        <v>0.1856307983170617</v>
       </c>
       <c r="H173" t="n">
-        <v>0.04371733267639993</v>
+        <v>1.501243569224562</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2431</v>
+        <v>5.275</v>
       </c>
       <c r="B174" t="n">
-        <v>4.328472025687767e-11</v>
+        <v>1.875246144445507e-10</v>
       </c>
       <c r="C174" t="n">
-        <v>1.016760423892196e-11</v>
+        <v>1.438634447541316e-10</v>
       </c>
       <c r="D174" t="n">
-        <v>1.620351893251888e-11</v>
+        <v>1.924348300740807e-11</v>
       </c>
       <c r="E174" t="n">
-        <v>3.259401132628047e-11</v>
+        <v>3.019166210018214e-11</v>
       </c>
       <c r="F174" t="n">
-        <v>0.3945611908867874</v>
+        <v>26.27545643289866</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9954780742511765</v>
+        <v>0.009810434168195707</v>
       </c>
       <c r="H174" t="n">
-        <v>0.07891223817735747</v>
+        <v>2.189621369408222</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.2501</v>
+        <v>5.2798</v>
       </c>
       <c r="B175" t="n">
-        <v>5.267832900482016e-11</v>
+        <v>3.287864391847327e-10</v>
       </c>
       <c r="C175" t="n">
-        <v>1.940785740921198e-11</v>
+        <v>5.421538283689557e-11</v>
       </c>
       <c r="D175" t="n">
-        <v>1.913039002496528e-11</v>
+        <v>5.348648515171612e-11</v>
       </c>
       <c r="E175" t="n">
-        <v>3.790120730447681e-11</v>
+        <v>7.669584588687578e-11</v>
       </c>
       <c r="F175" t="n">
-        <v>0.3629962673394347</v>
+        <v>5.432971456173521</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9962878197407145</v>
+        <v>0.3653517952283193</v>
       </c>
       <c r="H175" t="n">
-        <v>0.07259925346788695</v>
+        <v>1.086594291234704</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.2599</v>
+        <v>5.285</v>
       </c>
       <c r="B176" t="n">
-        <v>8.336682107772793e-11</v>
+        <v>3.052576528825946e-10</v>
       </c>
       <c r="C176" t="n">
-        <v>6.747077239917367e-14</v>
+        <v>-1.109589937775648e-10</v>
       </c>
       <c r="D176" t="n">
-        <v>3.179902159414301e-11</v>
+        <v>7.235855046106371e-11</v>
       </c>
       <c r="E176" t="n">
-        <v>5.47792506414809e-11</v>
+        <v>1.019581336177005e-10</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1824377717875173</v>
+        <v>3.142888988273804</v>
       </c>
       <c r="G176" t="n">
-        <v>0.9992913676247542</v>
+        <v>0.5342044259483523</v>
       </c>
       <c r="H176" t="n">
-        <v>0.03648755435750346</v>
+        <v>0.7857222470684511</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.265</v>
+        <v>5.2902</v>
       </c>
       <c r="B177" t="n">
-        <v>1.070022893919021e-10</v>
+        <v>2.351930858763892e-10</v>
       </c>
       <c r="C177" t="n">
-        <v>1.990046696868176e-11</v>
+        <v>5.557584749510329e-11</v>
       </c>
       <c r="D177" t="n">
-        <v>3.909476325062435e-11</v>
+        <v>5.286925094204488e-11</v>
       </c>
       <c r="E177" t="n">
-        <v>6.944637952010593e-11</v>
+        <v>8.089919599065259e-11</v>
       </c>
       <c r="F177" t="n">
-        <v>0.09537463750013546</v>
+        <v>5.744467528131108</v>
       </c>
       <c r="G177" t="n">
-        <v>0.9998555690046967</v>
+        <v>0.33188264944689</v>
       </c>
       <c r="H177" t="n">
-        <v>0.01907492750002709</v>
+        <v>1.148893505626222</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.27</v>
+        <v>5.2929</v>
       </c>
       <c r="B178" t="n">
-        <v>1.176742227471751e-10</v>
+        <v>7.148392467842667e-11</v>
       </c>
       <c r="C178" t="n">
-        <v>1.628177394334796e-11</v>
+        <v>5.545939458247701e-11</v>
       </c>
       <c r="D178" t="n">
-        <v>4.410703101089193e-11</v>
+        <v>2.223261894399988e-11</v>
       </c>
       <c r="E178" t="n">
-        <v>7.99628617848209e-11</v>
+        <v>3.576254945123344e-11</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2058171192389196</v>
+        <v>11.81325369317524</v>
       </c>
       <c r="G178" t="n">
-        <v>0.9990499770677471</v>
+        <v>0.03743819853366618</v>
       </c>
       <c r="H178" t="n">
-        <v>0.04116342384778392</v>
+        <v>2.362650738635048</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.275</v>
+        <v>5.2977</v>
       </c>
       <c r="B179" t="n">
-        <v>1.432162926804422e-10</v>
+        <v>1.80739169981524e-10</v>
       </c>
       <c r="C179" t="n">
-        <v>3.573899235018783e-11</v>
+        <v>-1.262349438545922e-10</v>
       </c>
       <c r="D179" t="n">
-        <v>3.696411802875901e-11</v>
+        <v>4.593785451820728e-11</v>
       </c>
       <c r="E179" t="n">
-        <v>6.807242216043032e-11</v>
+        <v>5.55437051467558e-11</v>
       </c>
       <c r="F179" t="n">
-        <v>0.3506734490153538</v>
+        <v>11.88971149985377</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9999999652673073</v>
+        <v>0.03633064036118041</v>
       </c>
       <c r="H179" t="n">
-        <v>0.02922278741794615</v>
+        <v>2.377942299970754</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.2798</v>
+        <v>5.2997</v>
       </c>
       <c r="B180" t="n">
-        <v>2.013022019030083e-10</v>
+        <v>1.339062988580765e-10</v>
       </c>
       <c r="C180" t="n">
-        <v>5.136831972446996e-11</v>
+        <v>-6.822506878480657e-11</v>
       </c>
       <c r="D180" t="n">
-        <v>7.276901967046382e-11</v>
+        <v>3.960016514184364e-11</v>
       </c>
       <c r="E180" t="n">
-        <v>1.337504345344505e-10</v>
+        <v>5.370182273672263e-11</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1239642006968047</v>
+        <v>2.358304595201767</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9997246405533272</v>
+        <v>0.7976667659967988</v>
       </c>
       <c r="H180" t="n">
-        <v>0.02479284013936095</v>
+        <v>0.4716609190403535</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.285</v>
+        <v>5.3024</v>
       </c>
       <c r="B181" t="n">
-        <v>2.286152864229283e-10</v>
+        <v>1.602342580893738e-10</v>
       </c>
       <c r="C181" t="n">
-        <v>4.116476400697916e-11</v>
+        <v>2.060707298802939e-10</v>
       </c>
       <c r="D181" t="n">
-        <v>8.354771775499303e-11</v>
+        <v>3.054380507569742e-11</v>
       </c>
       <c r="E181" t="n">
-        <v>1.506204478887327e-10</v>
+        <v>5.465252743575779e-11</v>
       </c>
       <c r="F181" t="n">
-        <v>0.06308860939145723</v>
+        <v>5.432791272438606</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9999480063106776</v>
+        <v>0.3653718544708698</v>
       </c>
       <c r="H181" t="n">
-        <v>0.01261772187829145</v>
+        <v>1.086558254487721</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.2902</v>
+        <v>5.3082</v>
       </c>
       <c r="B182" t="n">
-        <v>3.024532828378655e-10</v>
+        <v>2.050308682919521e-10</v>
       </c>
       <c r="C182" t="n">
-        <v>5.905854600303159e-11</v>
+        <v>-2.181295778235959e-11</v>
       </c>
       <c r="D182" t="n">
-        <v>1.097664285655701e-10</v>
+        <v>3.550720192807183e-11</v>
       </c>
       <c r="E182" t="n">
-        <v>1.950569246733509e-10</v>
+        <v>5.391902216755853e-11</v>
       </c>
       <c r="F182" t="n">
-        <v>0.05596513647473277</v>
+        <v>9.881808290195623</v>
       </c>
       <c r="G182" t="n">
-        <v>0.9999613659746382</v>
+        <v>0.07865426675420512</v>
       </c>
       <c r="H182" t="n">
-        <v>0.01119302729494655</v>
+        <v>1.976361658039125</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.2929</v>
+        <v>5.3129</v>
       </c>
       <c r="B183" t="n">
-        <v>3.454405100385599e-10</v>
+        <v>2.282627251371287e-10</v>
       </c>
       <c r="C183" t="n">
-        <v>7.178389713813237e-11</v>
+        <v>2.81368827338815e-11</v>
       </c>
       <c r="D183" t="n">
-        <v>1.251663208501198e-10</v>
+        <v>3.558623590096567e-11</v>
       </c>
       <c r="E183" t="n">
-        <v>2.22336731247153e-10</v>
+        <v>5.353740254931357e-11</v>
       </c>
       <c r="F183" t="n">
-        <v>0.05923347045615875</v>
+        <v>9.891140324976933</v>
       </c>
       <c r="G183" t="n">
-        <v>0.9999555278646942</v>
+        <v>0.07837915644099387</v>
       </c>
       <c r="H183" t="n">
-        <v>0.01184669409123175</v>
+        <v>1.978228064995387</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.2977</v>
+        <v>5.3175</v>
       </c>
       <c r="B184" t="n">
-        <v>3.363837166963247e-10</v>
+        <v>1.774690288261473e-10</v>
       </c>
       <c r="C184" t="n">
-        <v>7.246502113940108e-11</v>
+        <v>4.71159756867896e-11</v>
       </c>
       <c r="D184" t="n">
-        <v>1.221059818517278e-10</v>
+        <v>3.341563979974782e-11</v>
       </c>
       <c r="E184" t="n">
-        <v>2.212679081434532e-10</v>
+        <v>5.069997460044952e-11</v>
       </c>
       <c r="F184" t="n">
-        <v>0.05228224655765069</v>
+        <v>1.168394282746102</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9999673688862987</v>
+        <v>0.9478733292216599</v>
       </c>
       <c r="H184" t="n">
-        <v>0.01045644931153014</v>
+        <v>0.2336788565492204</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.2997</v>
+        <v>5.3228</v>
       </c>
       <c r="B185" t="n">
-        <v>3.364051356444446e-10</v>
+        <v>2.583773915859673e-10</v>
       </c>
       <c r="C185" t="n">
-        <v>5.674334739347154e-11</v>
+        <v>1.410604819134059e-11</v>
       </c>
       <c r="D185" t="n">
-        <v>1.229033849698229e-10</v>
+        <v>2.983095002393227e-11</v>
       </c>
       <c r="E185" t="n">
-        <v>2.175188460790841e-10</v>
+        <v>4.646355244114658e-11</v>
       </c>
       <c r="F185" t="n">
-        <v>0.07375916467781811</v>
+        <v>2.276576591844233</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9999234470786403</v>
+        <v>0.809700922241092</v>
       </c>
       <c r="H185" t="n">
-        <v>0.01475183293556362</v>
+        <v>0.4553153183688465</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.3024</v>
+        <v>5.3277</v>
       </c>
       <c r="B186" t="n">
-        <v>3.120287893655601e-10</v>
+        <v>2.855970084366713e-10</v>
       </c>
       <c r="C186" t="n">
-        <v>5.105534242587548e-11</v>
+        <v>-3.612343135895477e-11</v>
       </c>
       <c r="D186" t="n">
-        <v>1.142742138880391e-10</v>
+        <v>2.836182999274246e-11</v>
       </c>
       <c r="E186" t="n">
-        <v>2.026082121778388e-10</v>
+        <v>4.497375153057144e-11</v>
       </c>
       <c r="F186" t="n">
-        <v>0.05892569147757806</v>
+        <v>6.41741502723213</v>
       </c>
       <c r="G186" t="n">
-        <v>0.999956098495524</v>
+        <v>0.2676939189495374</v>
       </c>
       <c r="H186" t="n">
-        <v>0.01178513829551561</v>
+        <v>1.283483005446426</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.3082</v>
+        <v>5.3329</v>
       </c>
       <c r="B187" t="n">
-        <v>2.803936356129633e-10</v>
+        <v>2.547855377851049e-10</v>
       </c>
       <c r="C187" t="n">
-        <v>7.592680328237992e-11</v>
+        <v>4.998752108312037e-11</v>
       </c>
       <c r="D187" t="n">
-        <v>1.010317494800968e-10</v>
+        <v>1.741048676101444e-11</v>
       </c>
       <c r="E187" t="n">
-        <v>1.881121619589965e-10</v>
+        <v>2.747592242412364e-11</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0734399205245741</v>
+        <v>18.68065991839815</v>
       </c>
       <c r="G187" t="n">
-        <v>0.9999242641175078</v>
+        <v>0.09653203455358705</v>
       </c>
       <c r="H187" t="n">
-        <v>0.01468798410491482</v>
+        <v>1.556721659866513</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.3129</v>
+        <v>5.3375</v>
       </c>
       <c r="B188" t="n">
-        <v>2.653271876979039e-10</v>
+        <v>2.979883161933378e-10</v>
       </c>
       <c r="C188" t="n">
-        <v>4.831659360924865e-11</v>
+        <v>4.48004229497501e-11</v>
       </c>
       <c r="D188" t="n">
-        <v>9.688774291396663e-11</v>
+        <v>2.14206676127333e-11</v>
       </c>
       <c r="E188" t="n">
-        <v>1.712803828007973e-10</v>
+        <v>3.413995058993906e-11</v>
       </c>
       <c r="F188" t="n">
-        <v>0.07579390850375176</v>
+        <v>4.607473777137349</v>
       </c>
       <c r="G188" t="n">
-        <v>0.9999181171963726</v>
+        <v>0.4656338344405743</v>
       </c>
       <c r="H188" t="n">
-        <v>0.01515878170075035</v>
+        <v>0.9214947554274697</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.3175</v>
+        <v>5.3427</v>
       </c>
       <c r="B189" t="n">
-        <v>2.305801928551827e-10</v>
+        <v>3.036425976603123e-10</v>
       </c>
       <c r="C189" t="n">
-        <v>5.403880162289293e-11</v>
+        <v>6.279968293912192e-11</v>
       </c>
       <c r="D189" t="n">
-        <v>8.305767614684939e-11</v>
+        <v>1.991539106792245e-11</v>
       </c>
       <c r="E189" t="n">
-        <v>1.506237148664396e-10</v>
+        <v>3.175421242124081e-11</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02325099287252687</v>
+        <v>5.278480213110644</v>
       </c>
       <c r="G189" t="n">
-        <v>0.999995651419215</v>
+        <v>0.3828477398550601</v>
       </c>
       <c r="H189" t="n">
-        <v>0.004650198574505374</v>
+        <v>1.055696042622129</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.3228</v>
+        <v>5.3429</v>
       </c>
       <c r="B190" t="n">
-        <v>1.883489907689497e-10</v>
+        <v>3.10842301181981e-10</v>
       </c>
       <c r="C190" t="n">
-        <v>4.758971483002227e-11</v>
+        <v>3.49641904833723e-11</v>
       </c>
       <c r="D190" t="n">
-        <v>6.772425316952532e-11</v>
+        <v>1.803629288637234e-11</v>
       </c>
       <c r="E190" t="n">
-        <v>1.23558170967405e-10</v>
+        <v>2.911479251210978e-11</v>
       </c>
       <c r="F190" t="n">
-        <v>0.03933703254813233</v>
+        <v>6.641511748087285</v>
       </c>
       <c r="G190" t="n">
-        <v>0.9999839026188757</v>
+        <v>0.2486953896070514</v>
       </c>
       <c r="H190" t="n">
-        <v>0.007867406509626465</v>
+        <v>1.328302349617457</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.3277</v>
+        <v>5.3469</v>
       </c>
       <c r="B191" t="n">
-        <v>1.677036322634888e-10</v>
+        <v>3.166627868666905e-10</v>
       </c>
       <c r="C191" t="n">
-        <v>3.437993979893159e-11</v>
+        <v>-1.134002546521635e-11</v>
       </c>
       <c r="D191" t="n">
-        <v>6.087628629783848e-11</v>
+        <v>1.695600090971675e-11</v>
       </c>
       <c r="E191" t="n">
-        <v>1.083195052170435e-10</v>
+        <v>2.634746950313394e-11</v>
       </c>
       <c r="F191" t="n">
-        <v>0.05738707076873131</v>
+        <v>2.24283693041474</v>
       </c>
       <c r="G191" t="n">
-        <v>0.9999588858766383</v>
+        <v>0.8146248658643145</v>
       </c>
       <c r="H191" t="n">
-        <v>0.01147741415374626</v>
+        <v>0.4485673860829479</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.3329</v>
+        <v>5.3483</v>
       </c>
       <c r="B192" t="n">
-        <v>1.362738129513721e-10</v>
+        <v>3.223218391876523e-10</v>
       </c>
       <c r="C192" t="n">
-        <v>1.865464014133455e-11</v>
+        <v>5.533203043906959e-11</v>
       </c>
       <c r="D192" t="n">
-        <v>3.563102182513266e-11</v>
+        <v>1.522479682620757e-11</v>
       </c>
       <c r="E192" t="n">
-        <v>6.227254162371705e-11</v>
+        <v>2.522939569916993e-11</v>
       </c>
       <c r="F192" t="n">
-        <v>0.2885557007997763</v>
+        <v>6.540668923112337</v>
       </c>
       <c r="G192" t="n">
-        <v>0.9999999889279657</v>
+        <v>0.2571023680011205</v>
       </c>
       <c r="H192" t="n">
-        <v>0.02404630839998136</v>
+        <v>1.308133784622467</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.3375</v>
+        <v>5.3486</v>
       </c>
       <c r="B193" t="n">
-        <v>1.030216239145631e-10</v>
+        <v>3.210926136410318e-10</v>
       </c>
       <c r="C193" t="n">
-        <v>1.83800735274745e-11</v>
+        <v>7.7016906319248e-12</v>
       </c>
       <c r="D193" t="n">
-        <v>3.799095695529412e-11</v>
+        <v>1.466197149391785e-11</v>
       </c>
       <c r="E193" t="n">
-        <v>6.877847214024064e-11</v>
+        <v>2.312839353461661e-11</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1230235345443965</v>
+        <v>1.295867772079912</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9997297441537062</v>
+        <v>0.9353563074873844</v>
       </c>
       <c r="H193" t="n">
-        <v>0.0246047069088793</v>
+        <v>0.2591735544159824</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.3427</v>
+        <v>5.3521</v>
       </c>
       <c r="B194" t="n">
-        <v>7.165790165689241e-11</v>
+        <v>2.994435148064868e-10</v>
       </c>
       <c r="C194" t="n">
-        <v>1.101538902849638e-11</v>
+        <v>1.743712231032924e-11</v>
       </c>
       <c r="D194" t="n">
-        <v>2.721569850625484e-11</v>
+        <v>2.286841883617135e-11</v>
       </c>
       <c r="E194" t="n">
-        <v>4.966783450887652e-11</v>
+        <v>3.5214159928693e-11</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3131075638784825</v>
+        <v>6.045983549015253</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9973892732496373</v>
+        <v>0.3017702044322446</v>
       </c>
       <c r="H194" t="n">
-        <v>0.0626215127756965</v>
+        <v>1.209196709803051</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.3429</v>
+        <v>5.3536</v>
       </c>
       <c r="B195" t="n">
-        <v>7.607780313897727e-11</v>
+        <v>3.39284102701861e-10</v>
       </c>
       <c r="C195" t="n">
-        <v>1.260350360911143e-11</v>
+        <v>5.727530385332729e-12</v>
       </c>
       <c r="D195" t="n">
-        <v>2.820328215795901e-11</v>
+        <v>1.4432597857832e-11</v>
       </c>
       <c r="E195" t="n">
-        <v>5.110859785328758e-11</v>
+        <v>2.308410746619284e-11</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1712720665203913</v>
+        <v>5.489869864172502</v>
       </c>
       <c r="G195" t="n">
-        <v>0.999392463318492</v>
+        <v>0.3590579657782608</v>
       </c>
       <c r="H195" t="n">
-        <v>0.03425441330407826</v>
+        <v>1.0979739728345</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.3469</v>
+        <v>5.3579</v>
       </c>
       <c r="B196" t="n">
-        <v>6.136453867817891e-11</v>
+        <v>2.837884830623897e-10</v>
       </c>
       <c r="C196" t="n">
-        <v>3.091024880517835e-12</v>
+        <v>4.989911664355544e-11</v>
       </c>
       <c r="D196" t="n">
-        <v>2.354733454093353e-11</v>
+        <v>2.325729237731071e-11</v>
       </c>
       <c r="E196" t="n">
-        <v>4.016746794071066e-11</v>
+        <v>3.614601914466988e-11</v>
       </c>
       <c r="F196" t="n">
-        <v>0.3075558037656135</v>
+        <v>7.638325644490109</v>
       </c>
       <c r="G196" t="n">
-        <v>0.9974985613301846</v>
+        <v>0.1773269547670561</v>
       </c>
       <c r="H196" t="n">
-        <v>0.0615111607531227</v>
+        <v>1.527665128898022</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.3483</v>
+        <v>5.3598</v>
       </c>
       <c r="B197" t="n">
-        <v>6.008155732451622e-11</v>
+        <v>3.137465640122468e-10</v>
       </c>
       <c r="C197" t="n">
-        <v>7.35196282161341e-12</v>
+        <v>1.520694666554329e-11</v>
       </c>
       <c r="D197" t="n">
-        <v>2.256156819831406e-11</v>
+        <v>2.284503936314505e-11</v>
       </c>
       <c r="E197" t="n">
-        <v>3.961466644910899e-11</v>
+        <v>3.496584755506629e-11</v>
       </c>
       <c r="F197" t="n">
-        <v>0.2167787980704776</v>
+        <v>5.162953934531679</v>
       </c>
       <c r="G197" t="n">
-        <v>0.998922583440837</v>
+        <v>0.3963186877265225</v>
       </c>
       <c r="H197" t="n">
-        <v>0.04335575961409553</v>
+        <v>1.032590786906336</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.3486</v>
+        <v>5.3619</v>
       </c>
       <c r="B198" t="n">
-        <v>5.878600092183569e-11</v>
+        <v>3.064721583151674e-10</v>
       </c>
       <c r="C198" t="n">
-        <v>2.644340178464341e-12</v>
+        <v>2.285016775234959e-11</v>
       </c>
       <c r="D198" t="n">
-        <v>2.246668030156417e-11</v>
+        <v>2.200367956817479e-11</v>
       </c>
       <c r="E198" t="n">
-        <v>3.87829600170104e-11</v>
+        <v>3.423053665382726e-11</v>
       </c>
       <c r="F198" t="n">
-        <v>0.2318787205773301</v>
+        <v>12.87138533768013</v>
       </c>
       <c r="G198" t="n">
-        <v>0.9987318558484548</v>
+        <v>0.02461430385559687</v>
       </c>
       <c r="H198" t="n">
-        <v>0.04637574411546603</v>
+        <v>2.574277067536027</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.3521</v>
+        <v>5.3639</v>
       </c>
       <c r="B199" t="n">
-        <v>7.919260053295085e-11</v>
+        <v>2.864466369776852e-10</v>
       </c>
       <c r="C199" t="n">
-        <v>2.02155709076025e-11</v>
+        <v>9.199236847371758e-12</v>
       </c>
       <c r="D199" t="n">
-        <v>2.994183721872698e-11</v>
+        <v>2.103696092516717e-11</v>
       </c>
       <c r="E199" t="n">
-        <v>5.658635624079215e-11</v>
+        <v>3.241061618827161e-11</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4668898453292152</v>
+        <v>8.402021695910845</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9932855413928559</v>
+        <v>0.1354271060656666</v>
       </c>
       <c r="H199" t="n">
-        <v>0.09337796906584303</v>
+        <v>1.680404339182169</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.3536</v>
+        <v>5.366</v>
       </c>
       <c r="B200" t="n">
-        <v>6.864341028787819e-11</v>
+        <v>2.634192422763717e-10</v>
       </c>
       <c r="C200" t="n">
-        <v>1.275182026684107e-11</v>
+        <v>3.641929630120978e-11</v>
       </c>
       <c r="D200" t="n">
-        <v>2.542802668673711e-11</v>
+        <v>2.09817943535851e-11</v>
       </c>
       <c r="E200" t="n">
-        <v>4.635072324601271e-11</v>
+        <v>3.29836758802563e-11</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1677924512188398</v>
+        <v>5.81008105142873</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9994221381961642</v>
+        <v>0.3251397221319953</v>
       </c>
       <c r="H200" t="n">
-        <v>0.03355849024376796</v>
+        <v>1.162016210285746</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.3579</v>
+        <v>5.368</v>
       </c>
       <c r="B201" t="n">
-        <v>9.304103100845195e-11</v>
+        <v>3.031232130187555e-10</v>
       </c>
       <c r="C201" t="n">
-        <v>2.707684264757974e-11</v>
+        <v>1.737894160907219e-11</v>
       </c>
       <c r="D201" t="n">
-        <v>3.359422484180752e-11</v>
+        <v>1.708915384323661e-11</v>
       </c>
       <c r="E201" t="n">
-        <v>6.26487909693957e-11</v>
+        <v>2.685467123391917e-11</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1287836651252925</v>
+        <v>2.421593152138177</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9996976104972618</v>
+        <v>0.7882541950594442</v>
       </c>
       <c r="H201" t="n">
-        <v>0.02575673302505849</v>
+        <v>0.4843186304276355</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.3598</v>
+        <v>5.3697</v>
       </c>
       <c r="B202" t="n">
-        <v>8.632622633168363e-11</v>
+        <v>2.956505122040996e-10</v>
       </c>
       <c r="C202" t="n">
-        <v>2.513585442582523e-11</v>
+        <v>1.10463497954907e-10</v>
       </c>
       <c r="D202" t="n">
-        <v>3.124504263371527e-11</v>
+        <v>1.882121721542679e-11</v>
       </c>
       <c r="E202" t="n">
-        <v>5.952375117829619e-11</v>
+        <v>2.94506094052116e-11</v>
       </c>
       <c r="F202" t="n">
-        <v>0.151751620901664</v>
+        <v>24.7852186489396</v>
       </c>
       <c r="G202" t="n">
-        <v>0.999547934247809</v>
+        <v>0.0001532874779139445</v>
       </c>
       <c r="H202" t="n">
-        <v>0.0303503241803328</v>
+        <v>4.957043729787921</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3619</v>
+        <v>5.3748</v>
       </c>
       <c r="B203" t="n">
-        <v>8.584354379088843e-11</v>
+        <v>3.245731028195426e-10</v>
       </c>
       <c r="C203" t="n">
-        <v>5.38773117875299e-12</v>
+        <v>2.214042077041544e-11</v>
       </c>
       <c r="D203" t="n">
-        <v>3.235164318067811e-11</v>
+        <v>1.306350954078487e-11</v>
       </c>
       <c r="E203" t="n">
-        <v>5.518435631267892e-11</v>
+        <v>2.094142239256674e-11</v>
       </c>
       <c r="F203" t="n">
-        <v>0.151849419626343</v>
+        <v>9.550931409590316</v>
       </c>
       <c r="G203" t="n">
-        <v>0.999547221281788</v>
+        <v>0.08900648705442522</v>
       </c>
       <c r="H203" t="n">
-        <v>0.03036988392526861</v>
+        <v>1.910186281918063</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3639</v>
+        <v>5.3801</v>
       </c>
       <c r="B204" t="n">
-        <v>8.316526351364541e-11</v>
+        <v>3.363964641178685e-10</v>
       </c>
       <c r="C204" t="n">
-        <v>6.622026365451877e-12</v>
+        <v>3.283233615308356e-11</v>
       </c>
       <c r="D204" t="n">
-        <v>3.119803052896038e-11</v>
+        <v>1.172567547685849e-11</v>
       </c>
       <c r="E204" t="n">
-        <v>5.266080717972426e-11</v>
+        <v>1.900949741932491e-11</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1831963592777213</v>
+        <v>6.875162712641245</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9992841711216423</v>
+        <v>0.2300914118599998</v>
       </c>
       <c r="H204" t="n">
-        <v>0.03663927185554426</v>
+        <v>1.375032542528249</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.366</v>
+        <v>5.3829</v>
       </c>
       <c r="B205" t="n">
-        <v>8.243192507483493e-11</v>
+        <v>3.494635718213159e-10</v>
       </c>
       <c r="C205" t="n">
-        <v>1.247589971475589e-11</v>
+        <v>3.236121768265236e-11</v>
       </c>
       <c r="D205" t="n">
-        <v>3.026287711870335e-11</v>
+        <v>1.076852037345941e-11</v>
       </c>
       <c r="E205" t="n">
-        <v>5.240727497990212e-11</v>
+        <v>1.811641509725943e-11</v>
       </c>
       <c r="F205" t="n">
-        <v>0.1138058646560316</v>
+        <v>6.54669710366356</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9997768275853726</v>
+        <v>0.2565933117725899</v>
       </c>
       <c r="H205" t="n">
-        <v>0.02276117293120632</v>
+        <v>1.309339420732712</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.368</v>
+        <v>5.3833</v>
       </c>
       <c r="B206" t="n">
-        <v>7.472142380211947e-11</v>
+        <v>3.757582711148782e-10</v>
       </c>
       <c r="C206" t="n">
-        <v>1.131389675713555e-11</v>
+        <v>1.168455702486191e-11</v>
       </c>
       <c r="D206" t="n">
-        <v>2.762864765429808e-11</v>
+        <v>1.113808742402082e-11</v>
       </c>
       <c r="E206" t="n">
-        <v>4.93293820740255e-11</v>
+        <v>1.796054000211797e-11</v>
       </c>
       <c r="F206" t="n">
-        <v>0.1176473304917569</v>
+        <v>4.343995347640266</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9997578466586816</v>
+        <v>0.5010235425112071</v>
       </c>
       <c r="H206" t="n">
-        <v>0.02352946609835137</v>
+        <v>0.8687990695280533</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.3697</v>
+        <v>5.3839</v>
       </c>
       <c r="B207" t="n">
-        <v>7.926378335393987e-11</v>
+        <v>3.430490673281877e-10</v>
       </c>
       <c r="C207" t="n">
-        <v>1.93154255117042e-11</v>
+        <v>1.656555821589467e-11</v>
       </c>
       <c r="D207" t="n">
-        <v>2.870545590945764e-11</v>
+        <v>9.724309673650858e-12</v>
       </c>
       <c r="E207" t="n">
-        <v>5.385480923808736e-11</v>
+        <v>1.567023162826133e-11</v>
       </c>
       <c r="F207" t="n">
-        <v>0.1298485660516681</v>
+        <v>1.418451942184105</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9996914374863907</v>
+        <v>0.9222842373676846</v>
       </c>
       <c r="H207" t="n">
-        <v>0.02596971321033361</v>
+        <v>0.2836903884368209</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.3748</v>
+        <v>5.386</v>
       </c>
       <c r="B208" t="n">
-        <v>4.627262180744492e-11</v>
+        <v>3.465382215203051e-10</v>
       </c>
       <c r="C208" t="n">
-        <v>5.422629324948001e-12</v>
+        <v>2.447630725961696e-11</v>
       </c>
       <c r="D208" t="n">
-        <v>1.713701916168328e-11</v>
+        <v>9.717483333669265e-12</v>
       </c>
       <c r="E208" t="n">
-        <v>3.000895058552885e-11</v>
+        <v>1.581534964052465e-11</v>
       </c>
       <c r="F208" t="n">
-        <v>0.09796203343944858</v>
+        <v>0.9242306470517867</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9998457154104433</v>
+        <v>0.9684427042010392</v>
       </c>
       <c r="H208" t="n">
-        <v>0.01959240668788972</v>
+        <v>0.1848461294103573</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.3801</v>
+        <v>5.3899</v>
       </c>
       <c r="B209" t="n">
-        <v>1.909998636281786e-11</v>
+        <v>3.617684878674157e-10</v>
       </c>
       <c r="C209" t="n">
-        <v>3.028473232956083e-12</v>
+        <v>2.745018699996627e-11</v>
       </c>
       <c r="D209" t="n">
-        <v>7.37948862879144e-12</v>
+        <v>9.224143704071238e-12</v>
       </c>
       <c r="E209" t="n">
-        <v>1.287488768963808e-11</v>
+        <v>1.527488325403062e-11</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5807080733707204</v>
+        <v>2.723757090155483</v>
       </c>
       <c r="G209" t="n">
-        <v>0.9888694833906407</v>
+        <v>0.7424825669254379</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1161416146741441</v>
+        <v>0.5447514180310965</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.3829</v>
+        <v>5.3931</v>
       </c>
       <c r="B210" t="n">
-        <v>1.257551820697319e-11</v>
+        <v>2.901645317784957e-10</v>
       </c>
       <c r="C210" t="n">
-        <v>5.305619043427604e-13</v>
+        <v>1.920922581799898e-10</v>
       </c>
       <c r="D210" t="n">
-        <v>4.705610168503157e-12</v>
+        <v>7.452708836039938e-12</v>
       </c>
       <c r="E210" t="n">
-        <v>7.157405705281668e-12</v>
+        <v>1.314879030650757e-11</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4624730066858343</v>
+        <v>150.7074953872984</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9934330200587872</v>
+        <v>9.438877269079801e-31</v>
       </c>
       <c r="H210" t="n">
-        <v>0.09249460133716686</v>
+        <v>30.14149907745968</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3833</v>
+        <v>5.4034</v>
       </c>
       <c r="B211" t="n">
-        <v>2.057781811865262e-11</v>
+        <v>3.239012744436216e-10</v>
       </c>
       <c r="C211" t="n">
-        <v>2.269864449231168e-12</v>
+        <v>1.590058244511413e-10</v>
       </c>
       <c r="D211" t="n">
-        <v>7.875736763202658e-12</v>
+        <v>8.086943768982903e-12</v>
       </c>
       <c r="E211" t="n">
-        <v>1.408700737274114e-11</v>
+        <v>1.420246145403445e-11</v>
       </c>
       <c r="F211" t="n">
-        <v>0.3517638536126738</v>
+        <v>86.39635478767096</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9965547253374656</v>
+        <v>3.835509178797594e-17</v>
       </c>
       <c r="H211" t="n">
-        <v>0.07035277072253475</v>
+        <v>17.27927095753419</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.3839</v>
+        <v>5.4141</v>
       </c>
       <c r="B212" t="n">
-        <v>1.589334694146501e-11</v>
+        <v>3.520512868731536e-10</v>
       </c>
       <c r="C212" t="n">
-        <v>6.033661941855197e-12</v>
+        <v>9.163989108276751e-11</v>
       </c>
       <c r="D212" t="n">
-        <v>5.922256035410288e-12</v>
+        <v>8.965913590450619e-12</v>
       </c>
       <c r="E212" t="n">
-        <v>1.163017876687301e-11</v>
+        <v>1.508914606919443e-11</v>
       </c>
       <c r="F212" t="n">
-        <v>0.5180908894562224</v>
+        <v>38.16766843246129</v>
       </c>
       <c r="G212" t="n">
-        <v>0.9914458905359144</v>
+        <v>3.491622059983305e-07</v>
       </c>
       <c r="H212" t="n">
-        <v>0.1036181778912445</v>
+        <v>7.633533686492258</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.386</v>
+        <v>5.4244</v>
       </c>
       <c r="B213" t="n">
-        <v>1.41109111165665e-11</v>
+        <v>3.415489775381613e-10</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.149564483154516e-13</v>
+        <v>3.568259049336912e-11</v>
       </c>
       <c r="D213" t="n">
-        <v>5.388076139712791e-12</v>
+        <v>9.776673042207139e-12</v>
       </c>
       <c r="E213" t="n">
-        <v>8.880727752444349e-12</v>
+        <v>1.637929790911438e-11</v>
       </c>
       <c r="F213" t="n">
-        <v>0.2134897210768901</v>
+        <v>7.665563665933724</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9989617768697879</v>
+        <v>0.1756557705493043</v>
       </c>
       <c r="H213" t="n">
-        <v>0.04269794421537802</v>
+        <v>1.533112733186745</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.3899</v>
+        <v>5.4354</v>
       </c>
       <c r="B214" t="n">
-        <v>1.300509153446317e-11</v>
+        <v>3.352572738780141e-10</v>
       </c>
       <c r="C214" t="n">
-        <v>2.383839547880345e-12</v>
+        <v>3.096489424929234e-11</v>
       </c>
       <c r="D214" t="n">
-        <v>4.876294131321112e-12</v>
+        <v>8.875761865283069e-12</v>
       </c>
       <c r="E214" t="n">
-        <v>8.604918893291479e-12</v>
+        <v>1.462913705821612e-11</v>
       </c>
       <c r="F214" t="n">
-        <v>0.3464956398154214</v>
+        <v>4.350152047832943</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9966760980280029</v>
+        <v>0.5001792805473581</v>
       </c>
       <c r="H214" t="n">
-        <v>0.06929912796308428</v>
+        <v>0.8700304095665887</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.3931</v>
+        <v>5.4393</v>
       </c>
       <c r="B215" t="n">
-        <v>1.484705429952217e-11</v>
+        <v>3.425612355512025e-10</v>
       </c>
       <c r="C215" t="n">
-        <v>-3.336291797147398e-12</v>
+        <v>3.065434315371458e-11</v>
       </c>
       <c r="D215" t="n">
-        <v>5.822667735035782e-12</v>
+        <v>9.499646189170608e-12</v>
       </c>
       <c r="E215" t="n">
-        <v>8.52387419757831e-12</v>
+        <v>1.560068188678701e-11</v>
       </c>
       <c r="F215" t="n">
-        <v>0.3137537643803248</v>
+        <v>2.670278725459133</v>
       </c>
       <c r="G215" t="n">
-        <v>0.9973763816222058</v>
+        <v>0.7506602856420739</v>
       </c>
       <c r="H215" t="n">
-        <v>0.06275075287606495</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>5.4034</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.211888891155666e-11</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-1.51069955411421e-12</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.857358049086074e-12</v>
-      </c>
-      <c r="E216" t="n">
-        <v>7.555717747383079e-12</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.4057128944003451</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.9951707780610496</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0.08114257888006902</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>5.4141</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.616966279347031e-11</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.602081546330676e-12</v>
-      </c>
-      <c r="D217" t="n">
-        <v>6.318705733943029e-12</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1.150354967081151e-11</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.4973754892781661</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.9922190769239532</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0.09947509785563322</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>5.4244</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.543266370452357e-11</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.432323629740405e-12</v>
-      </c>
-      <c r="D218" t="n">
-        <v>5.878785488204978e-12</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1.028459578877343e-11</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.2920062648840197</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.9977907286579506</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0.05840125297680393</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>5.4354</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.658237282565588e-11</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.221460623030741e-12</v>
-      </c>
-      <c r="D219" t="n">
-        <v>6.309065965743918e-12</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1.094752294294233e-11</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.2620887056639071</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.9982959257369604</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0.05241774113278141</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>5.4393</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.690579059229103e-11</v>
-      </c>
-      <c r="C220" t="n">
-        <v>-1.579263716587767e-12</v>
-      </c>
-      <c r="D220" t="n">
-        <v>6.552107224675591e-12</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1.053791814683589e-11</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.3139209681713165</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.9973730401104742</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0.06278419363426331</v>
+        <v>0.5340557450918266</v>
       </c>
     </row>
   </sheetData>
